--- a/QuickspecsDB.xlsx
+++ b/QuickspecsDB.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hp-my.sharepoint.com/personal/daunou_hp_com/Documents/Quickspecs SCRIPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="8_{553D3FF9-AFF2-4F0F-B5C8-BEA54C927D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9998657D-50C1-4A3C-8203-148D1EF6DF72}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{553D3FF9-AFF2-4F0F-B5C8-BEA54C927D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B4C789D-4709-4FF9-918C-A1D4D105B757}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16296" xr2:uid="{498DE967-2523-46FD-97F3-30D847CED5BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16296" activeTab="1" xr2:uid="{498DE967-2523-46FD-97F3-30D847CED5BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="QuickSpecsList" sheetId="1" r:id="rId1"/>
     <sheet name="Check if already in the DB" sheetId="4" r:id="rId2"/>
     <sheet name="GenList" sheetId="2" r:id="rId3"/>
     <sheet name="Category" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Check if already in the DB'!$E$4:$E$609</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$536</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QuickSpecsList!$A$1:$G$536</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -3963,10 +3963,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78150D6D-7D45-48D5-8B3A-7343EBFE63DE}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:G536"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E537" sqref="E537"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6018,16 +6021,6 @@
 )</f>
         <v>Dock</v>
       </c>
-      <c r="E56" t="str" cm="1">
-        <f t="array" ref="E56">_xlfn.LET(
-  _xlpm.text, " " &amp; B56 &amp; " ",
-  _xlpm.keywords, GenList!$A$1:$A$100,
-  _xlpm.paddedKeywords, " " &amp; _xlpm.keywords &amp; " ",
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.paddedKeywords, _xlpm.text))),
-  IFERROR(INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>G5</v>
-      </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08339701</v>
@@ -6757,16 +6750,6 @@
   IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
 )</f>
         <v>Dock</v>
-      </c>
-      <c r="E75" t="str" cm="1">
-        <f t="array" ref="E75">_xlfn.LET(
-  _xlpm.text, " " &amp; B75 &amp; " ",
-  _xlpm.keywords, GenList!$A$1:$A$100,
-  _xlpm.paddedKeywords, " " &amp; _xlpm.keywords &amp; " ",
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.paddedKeywords, _xlpm.text))),
-  IFERROR(INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>G2</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
@@ -23964,10 +23947,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC90941-9A5F-4597-9883-5A26D773CAAD}">
+  <sheetPr>
+    <tabColor theme="2"/>
+  </sheetPr>
   <dimension ref="B1:E609"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24008,7 +23994,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B5) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B5) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24020,7 +24006,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B6) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B6) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24032,7 +24018,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B7) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B7) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24044,7 +24030,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B8) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B8) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24056,7 +24042,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B9) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B9) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24068,7 +24054,7 @@
         <v>19</v>
       </c>
       <c r="E10" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B10) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B10) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24080,7 +24066,7 @@
         <v>23</v>
       </c>
       <c r="E11" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B11) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B11) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24092,7 +24078,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B12) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B12) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24104,7 +24090,7 @@
         <v>27</v>
       </c>
       <c r="E13" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B13) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B13) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24116,7 +24102,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B14) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B14) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24128,7 +24114,7 @@
         <v>32</v>
       </c>
       <c r="E15" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B15) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B15) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24140,7 +24126,7 @@
         <v>34</v>
       </c>
       <c r="E16" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B16) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B16) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24152,7 +24138,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B17) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B17) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24164,7 +24150,7 @@
         <v>38</v>
       </c>
       <c r="E18" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B18) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B18) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24176,7 +24162,7 @@
         <v>40</v>
       </c>
       <c r="E19" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B19) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B19) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24188,7 +24174,7 @@
         <v>44</v>
       </c>
       <c r="E20" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B20) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B20) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24200,7 +24186,7 @@
         <v>46</v>
       </c>
       <c r="E21" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B21) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B21) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24212,7 +24198,7 @@
         <v>49</v>
       </c>
       <c r="E22" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B22) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B22) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24224,7 +24210,7 @@
         <v>51</v>
       </c>
       <c r="E23" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B23) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B23) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24236,7 +24222,7 @@
         <v>53</v>
       </c>
       <c r="E24" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B24) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B24) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24248,7 +24234,7 @@
         <v>55</v>
       </c>
       <c r="E25" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B25) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B25) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24260,7 +24246,7 @@
         <v>58</v>
       </c>
       <c r="E26" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B26) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B26) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24272,7 +24258,7 @@
         <v>61</v>
       </c>
       <c r="E27" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B27) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B27) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24284,7 +24270,7 @@
         <v>63</v>
       </c>
       <c r="E28" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B28) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B28) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24296,7 +24282,7 @@
         <v>65</v>
       </c>
       <c r="E29" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B29) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B29) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24308,7 +24294,7 @@
         <v>67</v>
       </c>
       <c r="E30" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B30) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B30) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24320,7 +24306,7 @@
         <v>69</v>
       </c>
       <c r="E31" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B31) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B31) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24332,7 +24318,7 @@
         <v>72</v>
       </c>
       <c r="E32" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B32) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B32) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24344,7 +24330,7 @@
         <v>74</v>
       </c>
       <c r="E33" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B33) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B33) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24356,7 +24342,7 @@
         <v>77</v>
       </c>
       <c r="E34" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B34) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B34) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24368,7 +24354,7 @@
         <v>80</v>
       </c>
       <c r="E35" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B35) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B35) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24380,7 +24366,7 @@
         <v>82</v>
       </c>
       <c r="E36" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B36) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B36) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24392,7 +24378,7 @@
         <v>84</v>
       </c>
       <c r="E37" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B37) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B37) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24404,7 +24390,7 @@
         <v>87</v>
       </c>
       <c r="E38" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B38) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B38) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24416,7 +24402,7 @@
         <v>91</v>
       </c>
       <c r="E39" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B39) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B39) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24428,7 +24414,7 @@
         <v>94</v>
       </c>
       <c r="E40" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B40) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B40) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24440,7 +24426,7 @@
         <v>97</v>
       </c>
       <c r="E41" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B41) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B41) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24452,7 +24438,7 @@
         <v>99</v>
       </c>
       <c r="E42" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B42) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B42) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24464,7 +24450,7 @@
         <v>101</v>
       </c>
       <c r="E43" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B43) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B43) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24476,7 +24462,7 @@
         <v>103</v>
       </c>
       <c r="E44" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B44) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B44) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24488,7 +24474,7 @@
         <v>105</v>
       </c>
       <c r="E45" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B45) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B45) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24500,7 +24486,7 @@
         <v>107</v>
       </c>
       <c r="E46" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B46) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B46) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24512,7 +24498,7 @@
         <v>110</v>
       </c>
       <c r="E47" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B47) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B47) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24524,7 +24510,7 @@
         <v>112</v>
       </c>
       <c r="E48" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B48) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B48) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24536,7 +24522,7 @@
         <v>114</v>
       </c>
       <c r="E49" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B49) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B49) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24548,7 +24534,7 @@
         <v>116</v>
       </c>
       <c r="E50" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B50) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B50) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24560,7 +24546,7 @@
         <v>118</v>
       </c>
       <c r="E51" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B51) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B51) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24572,7 +24558,7 @@
         <v>120</v>
       </c>
       <c r="E52" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B52) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B52) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24584,7 +24570,7 @@
         <v>122</v>
       </c>
       <c r="E53" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B53) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B53) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24596,7 +24582,7 @@
         <v>124</v>
       </c>
       <c r="E54" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B54) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B54) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24608,7 +24594,7 @@
         <v>126</v>
       </c>
       <c r="E55" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B55) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B55) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24620,7 +24606,7 @@
         <v>128</v>
       </c>
       <c r="E56" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B56) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B56) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24632,7 +24618,7 @@
         <v>130</v>
       </c>
       <c r="E57" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B57) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B57) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24644,7 +24630,7 @@
         <v>132</v>
       </c>
       <c r="E58" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B58) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B58) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24656,7 +24642,7 @@
         <v>134</v>
       </c>
       <c r="E59" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B59) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B59) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24668,7 +24654,7 @@
         <v>136</v>
       </c>
       <c r="E60" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B60) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B60) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24680,7 +24666,7 @@
         <v>138</v>
       </c>
       <c r="E61" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B61) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B61) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24692,7 +24678,7 @@
         <v>140</v>
       </c>
       <c r="E62" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B62) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B62) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24704,7 +24690,7 @@
         <v>142</v>
       </c>
       <c r="E63" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B63) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B63) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24716,7 +24702,7 @@
         <v>144</v>
       </c>
       <c r="E64" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B64) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B64) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24728,7 +24714,7 @@
         <v>147</v>
       </c>
       <c r="E65" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B65) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B65) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24740,7 +24726,7 @@
         <v>149</v>
       </c>
       <c r="E66" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B66) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B66) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24752,7 +24738,7 @@
         <v>152</v>
       </c>
       <c r="E67" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B67) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B67) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24764,7 +24750,7 @@
         <v>155</v>
       </c>
       <c r="E68" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B68) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B68) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24776,7 +24762,7 @@
         <v>158</v>
       </c>
       <c r="E69" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B69) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B69) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24788,7 +24774,7 @@
         <v>160</v>
       </c>
       <c r="E70" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B70) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B70) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24800,7 +24786,7 @@
         <v>162</v>
       </c>
       <c r="E71" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B71) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B71) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24812,7 +24798,7 @@
         <v>164</v>
       </c>
       <c r="E72" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B72) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B72) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24824,7 +24810,7 @@
         <v>166</v>
       </c>
       <c r="E73" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B73) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B73) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24836,7 +24822,7 @@
         <v>168</v>
       </c>
       <c r="E74" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B74) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B74) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24848,7 +24834,7 @@
         <v>170</v>
       </c>
       <c r="E75" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B75) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B75) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24860,7 +24846,7 @@
         <v>172</v>
       </c>
       <c r="E76" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B76) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B76) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24872,7 +24858,7 @@
         <v>174</v>
       </c>
       <c r="E77" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B77) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B77) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24884,7 +24870,7 @@
         <v>176</v>
       </c>
       <c r="E78" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B78) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B78) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24896,7 +24882,7 @@
         <v>178</v>
       </c>
       <c r="E79" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B79) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B79) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24908,7 +24894,7 @@
         <v>181</v>
       </c>
       <c r="E80" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B80) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B80) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24920,7 +24906,7 @@
         <v>183</v>
       </c>
       <c r="E81" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B81) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B81) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24932,7 +24918,7 @@
         <v>185</v>
       </c>
       <c r="E82" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B82) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B82) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24944,7 +24930,7 @@
         <v>187</v>
       </c>
       <c r="E83" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B83) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B83) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24956,7 +24942,7 @@
         <v>189</v>
       </c>
       <c r="E84" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B84) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B84) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24968,7 +24954,7 @@
         <v>191</v>
       </c>
       <c r="E85" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B85) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B85) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24980,7 +24966,7 @@
         <v>193</v>
       </c>
       <c r="E86" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B86) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B86) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -24992,7 +24978,7 @@
         <v>195</v>
       </c>
       <c r="E87" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B87) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B87) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25004,7 +24990,7 @@
         <v>197</v>
       </c>
       <c r="E88" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B88) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B88) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25016,7 +25002,7 @@
         <v>1109</v>
       </c>
       <c r="E89" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B89) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B89) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25028,7 +25014,7 @@
         <v>201</v>
       </c>
       <c r="E90" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B90) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B90) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25040,7 +25026,7 @@
         <v>203</v>
       </c>
       <c r="E91" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B91) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B91) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25052,7 +25038,7 @@
         <v>205</v>
       </c>
       <c r="E92" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B92) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B92) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25064,7 +25050,7 @@
         <v>207</v>
       </c>
       <c r="E93" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B93) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B93) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25076,7 +25062,7 @@
         <v>209</v>
       </c>
       <c r="E94" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B94) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B94) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25088,7 +25074,7 @@
         <v>211</v>
       </c>
       <c r="E95" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B95) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B95) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25100,7 +25086,7 @@
         <v>213</v>
       </c>
       <c r="E96" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B96) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B96) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25112,7 +25098,7 @@
         <v>215</v>
       </c>
       <c r="E97" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B97) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B97) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25124,7 +25110,7 @@
         <v>217</v>
       </c>
       <c r="E98" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B98) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B98) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25136,7 +25122,7 @@
         <v>219</v>
       </c>
       <c r="E99" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B99) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B99) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25148,7 +25134,7 @@
         <v>221</v>
       </c>
       <c r="E100" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B100) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B100) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25160,7 +25146,7 @@
         <v>223</v>
       </c>
       <c r="E101" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B101) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B101) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25172,7 +25158,7 @@
         <v>226</v>
       </c>
       <c r="E102" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B102) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B102) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25184,7 +25170,7 @@
         <v>228</v>
       </c>
       <c r="E103" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B103) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B103) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25196,7 +25182,7 @@
         <v>230</v>
       </c>
       <c r="E104" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B104) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B104) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25208,7 +25194,7 @@
         <v>232</v>
       </c>
       <c r="E105" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B105) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B105) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25220,7 +25206,7 @@
         <v>234</v>
       </c>
       <c r="E106" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B106) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B106) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25232,7 +25218,7 @@
         <v>236</v>
       </c>
       <c r="E107" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B107) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B107) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25244,7 +25230,7 @@
         <v>238</v>
       </c>
       <c r="E108" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B108) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B108) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25256,7 +25242,7 @@
         <v>240</v>
       </c>
       <c r="E109" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B109) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B109) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25268,7 +25254,7 @@
         <v>242</v>
       </c>
       <c r="E110" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B110) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B110) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25280,7 +25266,7 @@
         <v>244</v>
       </c>
       <c r="E111" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B111) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B111) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25292,7 +25278,7 @@
         <v>247</v>
       </c>
       <c r="E112" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B112) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B112) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25304,7 +25290,7 @@
         <v>250</v>
       </c>
       <c r="E113" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B113) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B113) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25316,7 +25302,7 @@
         <v>252</v>
       </c>
       <c r="E114" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B114) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B114) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25328,7 +25314,7 @@
         <v>254</v>
       </c>
       <c r="E115" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B115) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B115) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25340,7 +25326,7 @@
         <v>256</v>
       </c>
       <c r="E116" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B116) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B116) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25352,7 +25338,7 @@
         <v>258</v>
       </c>
       <c r="E117" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B117) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B117) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25364,7 +25350,7 @@
         <v>260</v>
       </c>
       <c r="E118" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B118) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B118) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25376,7 +25362,7 @@
         <v>262</v>
       </c>
       <c r="E119" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B119) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B119) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25388,7 +25374,7 @@
         <v>264</v>
       </c>
       <c r="E120" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B120) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B120) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25400,7 +25386,7 @@
         <v>266</v>
       </c>
       <c r="E121" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B121) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B121) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25412,7 +25398,7 @@
         <v>268</v>
       </c>
       <c r="E122" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B122) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B122) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25424,7 +25410,7 @@
         <v>270</v>
       </c>
       <c r="E123" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B123) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B123) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25436,7 +25422,7 @@
         <v>272</v>
       </c>
       <c r="E124" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B124) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B124) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25448,7 +25434,7 @@
         <v>274</v>
       </c>
       <c r="E125" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B125) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B125) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25460,7 +25446,7 @@
         <v>277</v>
       </c>
       <c r="E126" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B126) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B126) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25472,7 +25458,7 @@
         <v>279</v>
       </c>
       <c r="E127" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B127) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B127) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25484,7 +25470,7 @@
         <v>281</v>
       </c>
       <c r="E128" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B128) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B128) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25496,7 +25482,7 @@
         <v>283</v>
       </c>
       <c r="E129" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B129) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B129) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25508,7 +25494,7 @@
         <v>285</v>
       </c>
       <c r="E130" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B130) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B130) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25520,7 +25506,7 @@
         <v>287</v>
       </c>
       <c r="E131" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B131) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B131) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25532,7 +25518,7 @@
         <v>289</v>
       </c>
       <c r="E132" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B132) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B132) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25544,7 +25530,7 @@
         <v>291</v>
       </c>
       <c r="E133" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B133) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B133) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25556,7 +25542,7 @@
         <v>293</v>
       </c>
       <c r="E134" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B134) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B134) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25568,7 +25554,7 @@
         <v>295</v>
       </c>
       <c r="E135" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B135) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B135) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25580,7 +25566,7 @@
         <v>297</v>
       </c>
       <c r="E136" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B136) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B136) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25592,7 +25578,7 @@
         <v>299</v>
       </c>
       <c r="E137" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B137) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B137) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25604,7 +25590,7 @@
         <v>301</v>
       </c>
       <c r="E138" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B138) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B138) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25616,7 +25602,7 @@
         <v>303</v>
       </c>
       <c r="E139" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B139) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B139) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25628,7 +25614,7 @@
         <v>305</v>
       </c>
       <c r="E140" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B140) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B140) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25640,7 +25626,7 @@
         <v>307</v>
       </c>
       <c r="E141" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B141) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B141) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25652,7 +25638,7 @@
         <v>309</v>
       </c>
       <c r="E142" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B142) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B142) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25664,7 +25650,7 @@
         <v>311</v>
       </c>
       <c r="E143" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B143) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B143) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25676,7 +25662,7 @@
         <v>313</v>
       </c>
       <c r="E144" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B144) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B144) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25688,7 +25674,7 @@
         <v>315</v>
       </c>
       <c r="E145" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B145) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B145) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25700,7 +25686,7 @@
         <v>317</v>
       </c>
       <c r="E146" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B146) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B146) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25712,7 +25698,7 @@
         <v>319</v>
       </c>
       <c r="E147" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B147) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B147) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25724,7 +25710,7 @@
         <v>321</v>
       </c>
       <c r="E148" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B148) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B148) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25736,7 +25722,7 @@
         <v>323</v>
       </c>
       <c r="E149" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B149) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B149) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25748,7 +25734,7 @@
         <v>325</v>
       </c>
       <c r="E150" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B150) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B150) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25760,7 +25746,7 @@
         <v>327</v>
       </c>
       <c r="E151" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B151) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B151) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25772,7 +25758,7 @@
         <v>329</v>
       </c>
       <c r="E152" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B152) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B152) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25784,7 +25770,7 @@
         <v>331</v>
       </c>
       <c r="E153" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B153) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B153) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25796,7 +25782,7 @@
         <v>333</v>
       </c>
       <c r="E154" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B154) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B154) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25808,7 +25794,7 @@
         <v>335</v>
       </c>
       <c r="E155" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B155) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B155) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25820,7 +25806,7 @@
         <v>337</v>
       </c>
       <c r="E156" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B156) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B156) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25832,7 +25818,7 @@
         <v>339</v>
       </c>
       <c r="E157" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B157) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B157) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25844,7 +25830,7 @@
         <v>341</v>
       </c>
       <c r="E158" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B158) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B158) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25856,7 +25842,7 @@
         <v>343</v>
       </c>
       <c r="E159" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B159) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B159) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25868,7 +25854,7 @@
         <v>345</v>
       </c>
       <c r="E160" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B160) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B160) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25880,7 +25866,7 @@
         <v>347</v>
       </c>
       <c r="E161" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B161) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B161) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25892,7 +25878,7 @@
         <v>349</v>
       </c>
       <c r="E162" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B162) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B162) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25904,7 +25890,7 @@
         <v>351</v>
       </c>
       <c r="E163" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B163) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B163) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25916,7 +25902,7 @@
         <v>353</v>
       </c>
       <c r="E164" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B164) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B164) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25928,7 +25914,7 @@
         <v>355</v>
       </c>
       <c r="E165" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B165) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B165) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25940,7 +25926,7 @@
         <v>357</v>
       </c>
       <c r="E166" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B166) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B166) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25952,7 +25938,7 @@
         <v>360</v>
       </c>
       <c r="E167" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B167) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B167) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25964,7 +25950,7 @@
         <v>362</v>
       </c>
       <c r="E168" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B168) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B168) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25976,7 +25962,7 @@
         <v>364</v>
       </c>
       <c r="E169" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B169) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B169) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -25988,7 +25974,7 @@
         <v>366</v>
       </c>
       <c r="E170" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B170) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B170) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26000,7 +25986,7 @@
         <v>368</v>
       </c>
       <c r="E171" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B171) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B171) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26012,7 +25998,7 @@
         <v>370</v>
       </c>
       <c r="E172" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B172) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B172) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26024,7 +26010,7 @@
         <v>372</v>
       </c>
       <c r="E173" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B173) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B173) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26036,7 +26022,7 @@
         <v>374</v>
       </c>
       <c r="E174" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B174) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B174) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26048,7 +26034,7 @@
         <v>376</v>
       </c>
       <c r="E175" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B175) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B175) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26060,7 +26046,7 @@
         <v>378</v>
       </c>
       <c r="E176" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B176) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B176) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26072,7 +26058,7 @@
         <v>380</v>
       </c>
       <c r="E177" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B177) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B177) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26084,7 +26070,7 @@
         <v>382</v>
       </c>
       <c r="E178" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B178) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B178) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26096,7 +26082,7 @@
         <v>384</v>
       </c>
       <c r="E179" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B179) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B179) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26108,7 +26094,7 @@
         <v>386</v>
       </c>
       <c r="E180" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B180) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B180) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26120,7 +26106,7 @@
         <v>388</v>
       </c>
       <c r="E181" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B181) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B181) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26132,7 +26118,7 @@
         <v>390</v>
       </c>
       <c r="E182" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B182) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B182) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26144,7 +26130,7 @@
         <v>392</v>
       </c>
       <c r="E183" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B183) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B183) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26156,7 +26142,7 @@
         <v>394</v>
       </c>
       <c r="E184" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B184) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B184) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26168,7 +26154,7 @@
         <v>396</v>
       </c>
       <c r="E185" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B185) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B185) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26180,7 +26166,7 @@
         <v>398</v>
       </c>
       <c r="E186" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B186) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B186) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26192,7 +26178,7 @@
         <v>400</v>
       </c>
       <c r="E187" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B187) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B187) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26204,7 +26190,7 @@
         <v>1111</v>
       </c>
       <c r="E188" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B188) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B188) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
@@ -26216,7 +26202,7 @@
         <v>402</v>
       </c>
       <c r="E189" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B189) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B189) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26228,7 +26214,7 @@
         <v>404</v>
       </c>
       <c r="E190" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B190) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B190) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26240,7 +26226,7 @@
         <v>406</v>
       </c>
       <c r="E191" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B191) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B191) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26252,7 +26238,7 @@
         <v>408</v>
       </c>
       <c r="E192" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B192) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B192) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26264,7 +26250,7 @@
         <v>410</v>
       </c>
       <c r="E193" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B193) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B193) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26276,7 +26262,7 @@
         <v>412</v>
       </c>
       <c r="E194" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B194) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B194) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26288,7 +26274,7 @@
         <v>414</v>
       </c>
       <c r="E195" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B195) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B195) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26300,7 +26286,7 @@
         <v>416</v>
       </c>
       <c r="E196" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B196) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B196) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26312,7 +26298,7 @@
         <v>418</v>
       </c>
       <c r="E197" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B197) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B197) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26324,7 +26310,7 @@
         <v>420</v>
       </c>
       <c r="E198" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B198) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B198) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26336,7 +26322,7 @@
         <v>422</v>
       </c>
       <c r="E199" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B199) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B199) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26348,7 +26334,7 @@
         <v>424</v>
       </c>
       <c r="E200" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B200) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B200) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26360,7 +26346,7 @@
         <v>426</v>
       </c>
       <c r="E201" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B201) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B201) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26372,7 +26358,7 @@
         <v>428</v>
       </c>
       <c r="E202" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B202) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B202) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26384,7 +26370,7 @@
         <v>430</v>
       </c>
       <c r="E203" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B203) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B203) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26396,7 +26382,7 @@
         <v>432</v>
       </c>
       <c r="E204" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B204) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B204) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26408,7 +26394,7 @@
         <v>434</v>
       </c>
       <c r="E205" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B205) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B205) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26420,7 +26406,7 @@
         <v>436</v>
       </c>
       <c r="E206" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B206) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B206) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26432,7 +26418,7 @@
         <v>438</v>
       </c>
       <c r="E207" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B207) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B207) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26444,7 +26430,7 @@
         <v>440</v>
       </c>
       <c r="E208" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B208) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B208) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26456,7 +26442,7 @@
         <v>442</v>
       </c>
       <c r="E209" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B209) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B209) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26468,7 +26454,7 @@
         <v>444</v>
       </c>
       <c r="E210" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B210) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B210) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26480,7 +26466,7 @@
         <v>446</v>
       </c>
       <c r="E211" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B211) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B211) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26492,7 +26478,7 @@
         <v>448</v>
       </c>
       <c r="E212" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B212) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B212) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26504,7 +26490,7 @@
         <v>1113</v>
       </c>
       <c r="E213" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B213) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B213) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
@@ -26516,7 +26502,7 @@
         <v>450</v>
       </c>
       <c r="E214" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B214) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B214) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26528,7 +26514,7 @@
         <v>452</v>
       </c>
       <c r="E215" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B215) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B215) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26540,7 +26526,7 @@
         <v>454</v>
       </c>
       <c r="E216" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B216) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B216) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26552,7 +26538,7 @@
         <v>456</v>
       </c>
       <c r="E217" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B217) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B217) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26564,7 +26550,7 @@
         <v>458</v>
       </c>
       <c r="E218" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B218) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B218) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26576,7 +26562,7 @@
         <v>460</v>
       </c>
       <c r="E219" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B219) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B219) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26588,7 +26574,7 @@
         <v>462</v>
       </c>
       <c r="E220" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B220) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B220) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26600,7 +26586,7 @@
         <v>464</v>
       </c>
       <c r="E221" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B221) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B221) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26612,7 +26598,7 @@
         <v>466</v>
       </c>
       <c r="E222" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B222) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B222) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26624,7 +26610,7 @@
         <v>468</v>
       </c>
       <c r="E223" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B223) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B223) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26636,7 +26622,7 @@
         <v>470</v>
       </c>
       <c r="E224" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B224) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B224) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26648,7 +26634,7 @@
         <v>472</v>
       </c>
       <c r="E225" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B225) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B225) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26660,7 +26646,7 @@
         <v>474</v>
       </c>
       <c r="E226" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B226) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B226) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26672,7 +26658,7 @@
         <v>476</v>
       </c>
       <c r="E227" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B227) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B227) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26684,7 +26670,7 @@
         <v>478</v>
       </c>
       <c r="E228" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B228) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B228) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26696,7 +26682,7 @@
         <v>480</v>
       </c>
       <c r="E229" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B229) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B229) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26708,7 +26694,7 @@
         <v>482</v>
       </c>
       <c r="E230" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B230) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B230) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26720,7 +26706,7 @@
         <v>484</v>
       </c>
       <c r="E231" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B231) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B231) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26732,7 +26718,7 @@
         <v>486</v>
       </c>
       <c r="E232" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B232) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B232) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26744,7 +26730,7 @@
         <v>488</v>
       </c>
       <c r="E233" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B233) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B233) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26756,7 +26742,7 @@
         <v>490</v>
       </c>
       <c r="E234" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B234) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B234) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26768,7 +26754,7 @@
         <v>492</v>
       </c>
       <c r="E235" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B235) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B235) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26780,7 +26766,7 @@
         <v>494</v>
       </c>
       <c r="E236" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B236) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B236) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26792,7 +26778,7 @@
         <v>496</v>
       </c>
       <c r="E237" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B237) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B237) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26804,7 +26790,7 @@
         <v>498</v>
       </c>
       <c r="E238" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B238) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B238) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26816,7 +26802,7 @@
         <v>500</v>
       </c>
       <c r="E239" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B239) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B239) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26828,7 +26814,7 @@
         <v>502</v>
       </c>
       <c r="E240" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B240) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B240) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26840,7 +26826,7 @@
         <v>504</v>
       </c>
       <c r="E241" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B241) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B241) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26852,7 +26838,7 @@
         <v>506</v>
       </c>
       <c r="E242" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B242) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B242) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26864,7 +26850,7 @@
         <v>508</v>
       </c>
       <c r="E243" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B243) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B243) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26876,7 +26862,7 @@
         <v>510</v>
       </c>
       <c r="E244" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B244) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B244) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26888,7 +26874,7 @@
         <v>512</v>
       </c>
       <c r="E245" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B245) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B245) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26900,7 +26886,7 @@
         <v>514</v>
       </c>
       <c r="E246" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B246) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B246) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26912,7 +26898,7 @@
         <v>82</v>
       </c>
       <c r="E247" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B247) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B247) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26924,7 +26910,7 @@
         <v>517</v>
       </c>
       <c r="E248" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B248) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B248) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26936,7 +26922,7 @@
         <v>519</v>
       </c>
       <c r="E249" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B249) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B249) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26948,7 +26934,7 @@
         <v>521</v>
       </c>
       <c r="E250" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B250) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B250) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26960,7 +26946,7 @@
         <v>523</v>
       </c>
       <c r="E251" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B251) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B251) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26972,7 +26958,7 @@
         <v>525</v>
       </c>
       <c r="E252" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B252) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B252) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26984,7 +26970,7 @@
         <v>527</v>
       </c>
       <c r="E253" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B253) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B253) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -26996,7 +26982,7 @@
         <v>529</v>
       </c>
       <c r="E254" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B254) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B254) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27008,7 +26994,7 @@
         <v>531</v>
       </c>
       <c r="E255" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B255) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B255) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27020,7 +27006,7 @@
         <v>533</v>
       </c>
       <c r="E256" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B256) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B256) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27032,7 +27018,7 @@
         <v>535</v>
       </c>
       <c r="E257" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B257) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B257) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27044,7 +27030,7 @@
         <v>537</v>
       </c>
       <c r="E258" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B258) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B258) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27056,7 +27042,7 @@
         <v>539</v>
       </c>
       <c r="E259" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B259) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B259) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27068,7 +27054,7 @@
         <v>541</v>
       </c>
       <c r="E260" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B260) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B260) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27080,7 +27066,7 @@
         <v>543</v>
       </c>
       <c r="E261" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B261) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B261) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27092,7 +27078,7 @@
         <v>545</v>
       </c>
       <c r="E262" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B262) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B262) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27104,7 +27090,7 @@
         <v>547</v>
       </c>
       <c r="E263" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B263) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B263) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27116,7 +27102,7 @@
         <v>549</v>
       </c>
       <c r="E264" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B264) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B264) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27128,7 +27114,7 @@
         <v>551</v>
       </c>
       <c r="E265" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B265) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B265) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27140,7 +27126,7 @@
         <v>553</v>
       </c>
       <c r="E266" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B266) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B266) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27152,7 +27138,7 @@
         <v>555</v>
       </c>
       <c r="E267" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B267) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B267) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27164,7 +27150,7 @@
         <v>557</v>
       </c>
       <c r="E268" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B268) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B268) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27176,7 +27162,7 @@
         <v>559</v>
       </c>
       <c r="E269" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B269) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B269) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27188,7 +27174,7 @@
         <v>562</v>
       </c>
       <c r="E270" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B270) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B270) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27200,7 +27186,7 @@
         <v>564</v>
       </c>
       <c r="E271" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B271) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B271) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27212,7 +27198,7 @@
         <v>566</v>
       </c>
       <c r="E272" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B272) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B272) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27224,7 +27210,7 @@
         <v>568</v>
       </c>
       <c r="E273" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B273) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B273) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27236,7 +27222,7 @@
         <v>570</v>
       </c>
       <c r="E274" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B274) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B274) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27248,7 +27234,7 @@
         <v>572</v>
       </c>
       <c r="E275" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B275) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B275) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27260,7 +27246,7 @@
         <v>574</v>
       </c>
       <c r="E276" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B276) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B276) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27272,7 +27258,7 @@
         <v>576</v>
       </c>
       <c r="E277" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B277) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B277) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27284,7 +27270,7 @@
         <v>578</v>
       </c>
       <c r="E278" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B278) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B278) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27296,7 +27282,7 @@
         <v>580</v>
       </c>
       <c r="E279" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B279) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B279) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27308,7 +27294,7 @@
         <v>582</v>
       </c>
       <c r="E280" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B280) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B280) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27320,7 +27306,7 @@
         <v>584</v>
       </c>
       <c r="E281" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B281) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B281) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27332,7 +27318,7 @@
         <v>586</v>
       </c>
       <c r="E282" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B282) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B282) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27344,7 +27330,7 @@
         <v>588</v>
       </c>
       <c r="E283" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B283) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B283) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27356,7 +27342,7 @@
         <v>590</v>
       </c>
       <c r="E284" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B284) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B284) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27368,7 +27354,7 @@
         <v>592</v>
       </c>
       <c r="E285" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B285) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B285) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27380,7 +27366,7 @@
         <v>594</v>
       </c>
       <c r="E286" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B286) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B286) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27392,7 +27378,7 @@
         <v>596</v>
       </c>
       <c r="E287" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B287) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B287) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27404,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="E288" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B288) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B288) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27416,7 +27402,7 @@
         <v>599</v>
       </c>
       <c r="E289" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B289) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B289) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27428,7 +27414,7 @@
         <v>601</v>
       </c>
       <c r="E290" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B290) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B290) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27440,7 +27426,7 @@
         <v>603</v>
       </c>
       <c r="E291" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B291) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B291) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27452,7 +27438,7 @@
         <v>605</v>
       </c>
       <c r="E292" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B292) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B292) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27464,7 +27450,7 @@
         <v>607</v>
       </c>
       <c r="E293" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B293) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B293) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27476,7 +27462,7 @@
         <v>610</v>
       </c>
       <c r="E294" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B294) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B294) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27488,7 +27474,7 @@
         <v>612</v>
       </c>
       <c r="E295" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B295) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B295) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27500,7 +27486,7 @@
         <v>614</v>
       </c>
       <c r="E296" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B296) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B296) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27512,7 +27498,7 @@
         <v>616</v>
       </c>
       <c r="E297" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B297) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B297) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27524,7 +27510,7 @@
         <v>618</v>
       </c>
       <c r="E298" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B298) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B298) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27536,7 +27522,7 @@
         <v>620</v>
       </c>
       <c r="E299" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B299) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B299) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27548,7 +27534,7 @@
         <v>622</v>
       </c>
       <c r="E300" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B300) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B300) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27560,7 +27546,7 @@
         <v>624</v>
       </c>
       <c r="E301" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B301) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B301) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27572,7 +27558,7 @@
         <v>626</v>
       </c>
       <c r="E302" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B302) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B302) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27584,7 +27570,7 @@
         <v>628</v>
       </c>
       <c r="E303" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B303) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B303) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27596,7 +27582,7 @@
         <v>630</v>
       </c>
       <c r="E304" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B304) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B304) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27608,7 +27594,7 @@
         <v>632</v>
       </c>
       <c r="E305" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B305) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B305) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27620,7 +27606,7 @@
         <v>634</v>
       </c>
       <c r="E306" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B306) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B306) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27632,7 +27618,7 @@
         <v>636</v>
       </c>
       <c r="E307" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B307) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B307) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27644,7 +27630,7 @@
         <v>638</v>
       </c>
       <c r="E308" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B308) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B308) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27656,7 +27642,7 @@
         <v>640</v>
       </c>
       <c r="E309" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B309) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B309) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27668,7 +27654,7 @@
         <v>642</v>
       </c>
       <c r="E310" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B310) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B310) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27680,7 +27666,7 @@
         <v>644</v>
       </c>
       <c r="E311" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B311) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B311) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27692,7 +27678,7 @@
         <v>646</v>
       </c>
       <c r="E312" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B312) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B312) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27704,7 +27690,7 @@
         <v>648</v>
       </c>
       <c r="E313" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B313) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B313) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27716,7 +27702,7 @@
         <v>650</v>
       </c>
       <c r="E314" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B314) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B314) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27728,7 +27714,7 @@
         <v>652</v>
       </c>
       <c r="E315" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B315) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B315) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27740,7 +27726,7 @@
         <v>654</v>
       </c>
       <c r="E316" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B316) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B316) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27752,7 +27738,7 @@
         <v>656</v>
       </c>
       <c r="E317" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B317) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B317) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27764,7 +27750,7 @@
         <v>658</v>
       </c>
       <c r="E318" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B318) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B318) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27776,7 +27762,7 @@
         <v>660</v>
       </c>
       <c r="E319" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B319) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B319) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27788,7 +27774,7 @@
         <v>662</v>
       </c>
       <c r="E320" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B320) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B320) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27800,7 +27786,7 @@
         <v>664</v>
       </c>
       <c r="E321" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B321) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B321) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27812,7 +27798,7 @@
         <v>666</v>
       </c>
       <c r="E322" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B322) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B322) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27824,7 +27810,7 @@
         <v>668</v>
       </c>
       <c r="E323" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B323) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B323) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27836,7 +27822,7 @@
         <v>670</v>
       </c>
       <c r="E324" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B324) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B324) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27848,7 +27834,7 @@
         <v>672</v>
       </c>
       <c r="E325" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B325) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B325) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27860,7 +27846,7 @@
         <v>674</v>
       </c>
       <c r="E326" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B326) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B326) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27872,7 +27858,7 @@
         <v>676</v>
       </c>
       <c r="E327" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B327) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B327) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27884,7 +27870,7 @@
         <v>678</v>
       </c>
       <c r="E328" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B328) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B328) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27896,7 +27882,7 @@
         <v>680</v>
       </c>
       <c r="E329" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B329) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B329) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27908,7 +27894,7 @@
         <v>682</v>
       </c>
       <c r="E330" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B330) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B330) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27920,7 +27906,7 @@
         <v>684</v>
       </c>
       <c r="E331" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B331) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B331) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27932,7 +27918,7 @@
         <v>686</v>
       </c>
       <c r="E332" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B332) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B332) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27944,7 +27930,7 @@
         <v>688</v>
       </c>
       <c r="E333" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B333) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B333) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27956,7 +27942,7 @@
         <v>690</v>
       </c>
       <c r="E334" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B334) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B334) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27968,7 +27954,7 @@
         <v>692</v>
       </c>
       <c r="E335" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B335) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B335) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27980,7 +27966,7 @@
         <v>694</v>
       </c>
       <c r="E336" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B336) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B336) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -27992,7 +27978,7 @@
         <v>696</v>
       </c>
       <c r="E337" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B337) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B337) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28004,7 +27990,7 @@
         <v>698</v>
       </c>
       <c r="E338" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B338) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B338) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28016,7 +28002,7 @@
         <v>700</v>
       </c>
       <c r="E339" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B339) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B339) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28028,7 +28014,7 @@
         <v>702</v>
       </c>
       <c r="E340" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B340) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B340) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28040,7 +28026,7 @@
         <v>704</v>
       </c>
       <c r="E341" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B341) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B341) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28052,7 +28038,7 @@
         <v>706</v>
       </c>
       <c r="E342" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B342) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B342) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28064,7 +28050,7 @@
         <v>708</v>
       </c>
       <c r="E343" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B343) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B343) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28076,7 +28062,7 @@
         <v>710</v>
       </c>
       <c r="E344" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B344) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B344) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28088,7 +28074,7 @@
         <v>712</v>
       </c>
       <c r="E345" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B345) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B345) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28100,7 +28086,7 @@
         <v>714</v>
       </c>
       <c r="E346" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B346) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B346) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28112,7 +28098,7 @@
         <v>716</v>
       </c>
       <c r="E347" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B347) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B347) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28124,7 +28110,7 @@
         <v>718</v>
       </c>
       <c r="E348" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B348) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B348) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28136,7 +28122,7 @@
         <v>720</v>
       </c>
       <c r="E349" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B349) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B349) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28148,7 +28134,7 @@
         <v>722</v>
       </c>
       <c r="E350" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B350) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B350) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28160,7 +28146,7 @@
         <v>724</v>
       </c>
       <c r="E351" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B351) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B351) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28172,7 +28158,7 @@
         <v>726</v>
       </c>
       <c r="E352" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B352) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B352) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28184,7 +28170,7 @@
         <v>728</v>
       </c>
       <c r="E353" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B353) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B353) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28196,7 +28182,7 @@
         <v>730</v>
       </c>
       <c r="E354" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B354) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B354) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28208,7 +28194,7 @@
         <v>732</v>
       </c>
       <c r="E355" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B355) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B355) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28220,7 +28206,7 @@
         <v>734</v>
       </c>
       <c r="E356" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B356) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B356) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28232,7 +28218,7 @@
         <v>736</v>
       </c>
       <c r="E357" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B357) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B357) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28244,7 +28230,7 @@
         <v>738</v>
       </c>
       <c r="E358" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B358) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B358) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28256,7 +28242,7 @@
         <v>740</v>
       </c>
       <c r="E359" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B359) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B359) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28268,7 +28254,7 @@
         <v>742</v>
       </c>
       <c r="E360" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B360) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B360) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28280,7 +28266,7 @@
         <v>744</v>
       </c>
       <c r="E361" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B361) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B361) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28292,7 +28278,7 @@
         <v>746</v>
       </c>
       <c r="E362" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B362) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B362) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28304,7 +28290,7 @@
         <v>748</v>
       </c>
       <c r="E363" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B363) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B363) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28316,7 +28302,7 @@
         <v>750</v>
       </c>
       <c r="E364" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B364) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B364) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28328,7 +28314,7 @@
         <v>752</v>
       </c>
       <c r="E365" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B365) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B365) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28340,7 +28326,7 @@
         <v>754</v>
       </c>
       <c r="E366" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B366) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B366) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28352,7 +28338,7 @@
         <v>756</v>
       </c>
       <c r="E367" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B367) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B367) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28364,7 +28350,7 @@
         <v>758</v>
       </c>
       <c r="E368" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B368) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B368) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28376,7 +28362,7 @@
         <v>760</v>
       </c>
       <c r="E369" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B369) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B369) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28388,7 +28374,7 @@
         <v>762</v>
       </c>
       <c r="E370" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B370) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B370) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28400,7 +28386,7 @@
         <v>764</v>
       </c>
       <c r="E371" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B371) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B371) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28412,7 +28398,7 @@
         <v>766</v>
       </c>
       <c r="E372" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B372) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B372) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28424,7 +28410,7 @@
         <v>768</v>
       </c>
       <c r="E373" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B373) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B373) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28436,7 +28422,7 @@
         <v>770</v>
       </c>
       <c r="E374" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B374) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B374) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28448,7 +28434,7 @@
         <v>772</v>
       </c>
       <c r="E375" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B375) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B375) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28460,7 +28446,7 @@
         <v>774</v>
       </c>
       <c r="E376" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B376) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B376) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28472,7 +28458,7 @@
         <v>776</v>
       </c>
       <c r="E377" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B377) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B377) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28484,7 +28470,7 @@
         <v>778</v>
       </c>
       <c r="E378" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B378) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B378) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28496,7 +28482,7 @@
         <v>780</v>
       </c>
       <c r="E379" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B379) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B379) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28508,7 +28494,7 @@
         <v>782</v>
       </c>
       <c r="E380" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B380) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B380) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28520,7 +28506,7 @@
         <v>784</v>
       </c>
       <c r="E381" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B381) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B381) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28532,7 +28518,7 @@
         <v>786</v>
       </c>
       <c r="E382" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B382) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B382) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28544,7 +28530,7 @@
         <v>788</v>
       </c>
       <c r="E383" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B383) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B383) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28556,7 +28542,7 @@
         <v>792</v>
       </c>
       <c r="E384" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B384) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B384) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28568,7 +28554,7 @@
         <v>794</v>
       </c>
       <c r="E385" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B385) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B385) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28580,7 +28566,7 @@
         <v>796</v>
       </c>
       <c r="E386" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B386) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B386) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28592,7 +28578,7 @@
         <v>798</v>
       </c>
       <c r="E387" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B387) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B387) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28604,7 +28590,7 @@
         <v>800</v>
       </c>
       <c r="E388" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B388) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B388) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28616,7 +28602,7 @@
         <v>802</v>
       </c>
       <c r="E389" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B389) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B389) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28628,7 +28614,7 @@
         <v>804</v>
       </c>
       <c r="E390" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B390) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B390) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28640,7 +28626,7 @@
         <v>806</v>
       </c>
       <c r="E391" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B391) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B391) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28652,7 +28638,7 @@
         <v>808</v>
       </c>
       <c r="E392" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B392) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B392) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28664,7 +28650,7 @@
         <v>810</v>
       </c>
       <c r="E393" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B393) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B393) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28676,7 +28662,7 @@
         <v>812</v>
       </c>
       <c r="E394" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B394) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B394) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28688,7 +28674,7 @@
         <v>814</v>
       </c>
       <c r="E395" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B395) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B395) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28700,7 +28686,7 @@
         <v>816</v>
       </c>
       <c r="E396" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B396) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B396) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28712,7 +28698,7 @@
         <v>818</v>
       </c>
       <c r="E397" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B397) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B397) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28724,7 +28710,7 @@
         <v>820</v>
       </c>
       <c r="E398" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B398) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B398) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28736,7 +28722,7 @@
         <v>822</v>
       </c>
       <c r="E399" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B399) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B399) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28748,7 +28734,7 @@
         <v>824</v>
       </c>
       <c r="E400" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B400) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B400) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28760,7 +28746,7 @@
         <v>826</v>
       </c>
       <c r="E401" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B401) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B401) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28772,7 +28758,7 @@
         <v>828</v>
       </c>
       <c r="E402" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B402) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B402) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28784,7 +28770,7 @@
         <v>830</v>
       </c>
       <c r="E403" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B403) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B403) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28796,7 +28782,7 @@
         <v>832</v>
       </c>
       <c r="E404" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B404) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B404) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28808,7 +28794,7 @@
         <v>834</v>
       </c>
       <c r="E405" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B405) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B405) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28820,7 +28806,7 @@
         <v>836</v>
       </c>
       <c r="E406" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B406) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B406) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28832,7 +28818,7 @@
         <v>838</v>
       </c>
       <c r="E407" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B407) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B407) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28844,7 +28830,7 @@
         <v>840</v>
       </c>
       <c r="E408" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B408) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B408) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28856,7 +28842,7 @@
         <v>842</v>
       </c>
       <c r="E409" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B409) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B409) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28868,7 +28854,7 @@
         <v>844</v>
       </c>
       <c r="E410" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B410) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B410) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28880,7 +28866,7 @@
         <v>846</v>
       </c>
       <c r="E411" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B411) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B411) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28892,7 +28878,7 @@
         <v>848</v>
       </c>
       <c r="E412" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B412) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B412) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28904,7 +28890,7 @@
         <v>850</v>
       </c>
       <c r="E413" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B413) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B413) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28916,7 +28902,7 @@
         <v>852</v>
       </c>
       <c r="E414" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B414) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B414) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28928,7 +28914,7 @@
         <v>854</v>
       </c>
       <c r="E415" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B415) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B415) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28940,7 +28926,7 @@
         <v>856</v>
       </c>
       <c r="E416" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B416) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B416) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28952,7 +28938,7 @@
         <v>858</v>
       </c>
       <c r="E417" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B417) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B417) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28964,7 +28950,7 @@
         <v>860</v>
       </c>
       <c r="E418" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B418) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B418) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28976,7 +28962,7 @@
         <v>863</v>
       </c>
       <c r="E419" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B419) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B419) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -28988,7 +28974,7 @@
         <v>865</v>
       </c>
       <c r="E420" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B420) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B420) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29000,7 +28986,7 @@
         <v>867</v>
       </c>
       <c r="E421" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B421) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B421) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29012,7 +28998,7 @@
         <v>869</v>
       </c>
       <c r="E422" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B422) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B422) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29024,7 +29010,7 @@
         <v>871</v>
       </c>
       <c r="E423" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B423) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B423) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29036,7 +29022,7 @@
         <v>873</v>
       </c>
       <c r="E424" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B424) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B424) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29048,7 +29034,7 @@
         <v>875</v>
       </c>
       <c r="E425" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B425) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B425) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29060,7 +29046,7 @@
         <v>877</v>
       </c>
       <c r="E426" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B426) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B426) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29072,7 +29058,7 @@
         <v>879</v>
       </c>
       <c r="E427" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B427) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B427) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29084,7 +29070,7 @@
         <v>881</v>
       </c>
       <c r="E428" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B428) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B428) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29096,7 +29082,7 @@
         <v>883</v>
       </c>
       <c r="E429" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B429) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B429) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29108,7 +29094,7 @@
         <v>885</v>
       </c>
       <c r="E430" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B430) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B430) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29120,7 +29106,7 @@
         <v>887</v>
       </c>
       <c r="E431" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B431) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B431) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29132,7 +29118,7 @@
         <v>889</v>
       </c>
       <c r="E432" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B432) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B432) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29144,7 +29130,7 @@
         <v>94</v>
       </c>
       <c r="E433" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B433) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B433) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29156,7 +29142,7 @@
         <v>892</v>
       </c>
       <c r="E434" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B434) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B434) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29168,7 +29154,7 @@
         <v>894</v>
       </c>
       <c r="E435" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B435) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B435) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29180,7 +29166,7 @@
         <v>896</v>
       </c>
       <c r="E436" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B436) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B436) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29192,7 +29178,7 @@
         <v>1114</v>
       </c>
       <c r="E437" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B437) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B437) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29204,7 +29190,7 @@
         <v>900</v>
       </c>
       <c r="E438" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B438) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B438) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29216,7 +29202,7 @@
         <v>902</v>
       </c>
       <c r="E439" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B439) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B439) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29228,7 +29214,7 @@
         <v>904</v>
       </c>
       <c r="E440" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B440) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B440) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29240,7 +29226,7 @@
         <v>906</v>
       </c>
       <c r="E441" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B441) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B441) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29252,7 +29238,7 @@
         <v>908</v>
       </c>
       <c r="E442" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B442) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B442) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29264,7 +29250,7 @@
         <v>910</v>
       </c>
       <c r="E443" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B443) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B443) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29276,7 +29262,7 @@
         <v>912</v>
       </c>
       <c r="E444" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B444) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B444) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29288,7 +29274,7 @@
         <v>914</v>
       </c>
       <c r="E445" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B445) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B445) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29300,7 +29286,7 @@
         <v>1115</v>
       </c>
       <c r="E446" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B446) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B446) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29312,7 +29298,7 @@
         <v>918</v>
       </c>
       <c r="E447" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B447) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B447) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29324,7 +29310,7 @@
         <v>920</v>
       </c>
       <c r="E448" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B448) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B448) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29336,7 +29322,7 @@
         <v>922</v>
       </c>
       <c r="E449" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B449) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B449) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29348,7 +29334,7 @@
         <v>924</v>
       </c>
       <c r="E450" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B450) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B450) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29360,7 +29346,7 @@
         <v>926</v>
       </c>
       <c r="E451" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B451) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B451) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29372,7 +29358,7 @@
         <v>928</v>
       </c>
       <c r="E452" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B452) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B452) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29384,7 +29370,7 @@
         <v>930</v>
       </c>
       <c r="E453" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B453) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B453) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29396,7 +29382,7 @@
         <v>932</v>
       </c>
       <c r="E454" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B454) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B454) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29408,7 +29394,7 @@
         <v>1116</v>
       </c>
       <c r="E455" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B455) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B455) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29420,7 +29406,7 @@
         <v>936</v>
       </c>
       <c r="E456" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B456) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B456) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29432,7 +29418,7 @@
         <v>432</v>
       </c>
       <c r="E457" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B457) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B457) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29444,7 +29430,7 @@
         <v>939</v>
       </c>
       <c r="E458" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B458) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B458) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29456,7 +29442,7 @@
         <v>941</v>
       </c>
       <c r="E459" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B459) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B459) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29468,7 +29454,7 @@
         <v>943</v>
       </c>
       <c r="E460" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B460) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B460) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29480,7 +29466,7 @@
         <v>945</v>
       </c>
       <c r="E461" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B461) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B461) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29492,7 +29478,7 @@
         <v>947</v>
       </c>
       <c r="E462" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B462) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B462) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29504,7 +29490,7 @@
         <v>949</v>
       </c>
       <c r="E463" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B463) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B463) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29516,7 +29502,7 @@
         <v>951</v>
       </c>
       <c r="E464" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B464) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B464) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29528,7 +29514,7 @@
         <v>953</v>
       </c>
       <c r="E465" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B465) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B465) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29540,7 +29526,7 @@
         <v>955</v>
       </c>
       <c r="E466" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B466) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B466) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29552,7 +29538,7 @@
         <v>957</v>
       </c>
       <c r="E467" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B467) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B467) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29564,7 +29550,7 @@
         <v>959</v>
       </c>
       <c r="E468" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B468) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B468) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29576,7 +29562,7 @@
         <v>961</v>
       </c>
       <c r="E469" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B469) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B469) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29588,7 +29574,7 @@
         <v>963</v>
       </c>
       <c r="E470" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B470) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B470) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29600,7 +29586,7 @@
         <v>965</v>
       </c>
       <c r="E471" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B471) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B471) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29612,7 +29598,7 @@
         <v>967</v>
       </c>
       <c r="E472" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B472) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B472) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29624,7 +29610,7 @@
         <v>969</v>
       </c>
       <c r="E473" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B473) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B473) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29636,7 +29622,7 @@
         <v>971</v>
       </c>
       <c r="E474" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B474) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B474) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29648,7 +29634,7 @@
         <v>973</v>
       </c>
       <c r="E475" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B475) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B475) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29660,7 +29646,7 @@
         <v>975</v>
       </c>
       <c r="E476" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B476) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B476) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29672,7 +29658,7 @@
         <v>977</v>
       </c>
       <c r="E477" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B477) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B477) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29684,7 +29670,7 @@
         <v>979</v>
       </c>
       <c r="E478" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B478) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B478) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29696,7 +29682,7 @@
         <v>981</v>
       </c>
       <c r="E479" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B479) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B479) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29708,7 +29694,7 @@
         <v>983</v>
       </c>
       <c r="E480" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B480) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B480) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29720,7 +29706,7 @@
         <v>985</v>
       </c>
       <c r="E481" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B481) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B481) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29732,7 +29718,7 @@
         <v>987</v>
       </c>
       <c r="E482" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B482) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B482) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29744,7 +29730,7 @@
         <v>989</v>
       </c>
       <c r="E483" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B483) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B483) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29756,7 +29742,7 @@
         <v>991</v>
       </c>
       <c r="E484" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B484) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B484) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29768,7 +29754,7 @@
         <v>993</v>
       </c>
       <c r="E485" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B485) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B485) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29780,7 +29766,7 @@
         <v>995</v>
       </c>
       <c r="E486" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B486) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B486) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29792,7 +29778,7 @@
         <v>997</v>
       </c>
       <c r="E487" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B487) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B487) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29804,7 +29790,7 @@
         <v>999</v>
       </c>
       <c r="E488" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B488) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B488) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29816,7 +29802,7 @@
         <v>1001</v>
       </c>
       <c r="E489" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B489) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B489) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29828,7 +29814,7 @@
         <v>1003</v>
       </c>
       <c r="E490" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B490) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B490) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29840,7 +29826,7 @@
         <v>1005</v>
       </c>
       <c r="E491" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B491) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B491) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29852,7 +29838,7 @@
         <v>1007</v>
       </c>
       <c r="E492" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B492) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B492) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29864,7 +29850,7 @@
         <v>1009</v>
       </c>
       <c r="E493" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B493) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B493) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29876,7 +29862,7 @@
         <v>1011</v>
       </c>
       <c r="E494" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B494) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B494) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29888,7 +29874,7 @@
         <v>1013</v>
       </c>
       <c r="E495" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B495) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B495) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29900,7 +29886,7 @@
         <v>1015</v>
       </c>
       <c r="E496" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B496) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B496) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29912,7 +29898,7 @@
         <v>1017</v>
       </c>
       <c r="E497" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B497) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B497) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29924,7 +29910,7 @@
         <v>1019</v>
       </c>
       <c r="E498" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B498) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B498) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29936,7 +29922,7 @@
         <v>1117</v>
       </c>
       <c r="E499" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B499) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B499) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29948,7 +29934,7 @@
         <v>1023</v>
       </c>
       <c r="E500" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B500) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B500) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29960,7 +29946,7 @@
         <v>1025</v>
       </c>
       <c r="E501" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B501) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B501) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29972,7 +29958,7 @@
         <v>1027</v>
       </c>
       <c r="E502" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B502) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B502) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29984,7 +29970,7 @@
         <v>1029</v>
       </c>
       <c r="E503" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B503) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B503) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -29996,7 +29982,7 @@
         <v>1031</v>
       </c>
       <c r="E504" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B504) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B504) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30008,7 +29994,7 @@
         <v>1033</v>
       </c>
       <c r="E505" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B505) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B505) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30020,7 +30006,7 @@
         <v>1035</v>
       </c>
       <c r="E506" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B506) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B506) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30032,7 +30018,7 @@
         <v>1037</v>
       </c>
       <c r="E507" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B507) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B507) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30044,7 +30030,7 @@
         <v>1039</v>
       </c>
       <c r="E508" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B508) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B508) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30056,7 +30042,7 @@
         <v>1041</v>
       </c>
       <c r="E509" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B509) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B509) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30068,7 +30054,7 @@
         <v>1043</v>
       </c>
       <c r="E510" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B510) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B510) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30080,7 +30066,7 @@
         <v>1045</v>
       </c>
       <c r="E511" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B511) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B511) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30092,7 +30078,7 @@
         <v>1047</v>
       </c>
       <c r="E512" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B512) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B512) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30104,7 +30090,7 @@
         <v>1049</v>
       </c>
       <c r="E513" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B513) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B513) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30116,7 +30102,7 @@
         <v>578</v>
       </c>
       <c r="E514" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B514) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B514) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30128,7 +30114,7 @@
         <v>1052</v>
       </c>
       <c r="E515" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B515) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B515) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30140,7 +30126,7 @@
         <v>1054</v>
       </c>
       <c r="E516" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B516) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B516) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30152,7 +30138,7 @@
         <v>1056</v>
       </c>
       <c r="E517" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B517) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B517) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30164,7 +30150,7 @@
         <v>1058</v>
       </c>
       <c r="E518" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B518) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B518) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30176,7 +30162,7 @@
         <v>1060</v>
       </c>
       <c r="E519" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B519) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B519) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30188,7 +30174,7 @@
         <v>1062</v>
       </c>
       <c r="E520" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B520) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B520) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30200,7 +30186,7 @@
         <v>1064</v>
       </c>
       <c r="E521" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B521) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B521) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30212,7 +30198,7 @@
         <v>1066</v>
       </c>
       <c r="E522" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B522) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B522) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30224,7 +30210,7 @@
         <v>1068</v>
       </c>
       <c r="E523" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B523) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B523) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30236,7 +30222,7 @@
         <v>1070</v>
       </c>
       <c r="E524" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B524) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B524) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30248,7 +30234,7 @@
         <v>1072</v>
       </c>
       <c r="E525" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B525) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B525) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30260,7 +30246,7 @@
         <v>1074</v>
       </c>
       <c r="E526" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B526) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B526) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30272,7 +30258,7 @@
         <v>1076</v>
       </c>
       <c r="E527" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B527) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B527) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30284,7 +30270,7 @@
         <v>1078</v>
       </c>
       <c r="E528" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B528) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B528) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30296,7 +30282,7 @@
         <v>1081</v>
       </c>
       <c r="E529" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B529) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B529) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30308,7 +30294,7 @@
         <v>1083</v>
       </c>
       <c r="E530" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B530) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B530) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30320,7 +30306,7 @@
         <v>1085</v>
       </c>
       <c r="E531" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B531) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B531) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30332,7 +30318,7 @@
         <v>1118</v>
       </c>
       <c r="E532" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B532) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B532) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30344,7 +30330,7 @@
         <v>1089</v>
       </c>
       <c r="E533" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B533) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B533) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30356,7 +30342,7 @@
         <v>1091</v>
       </c>
       <c r="E534" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B534) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B534) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30368,7 +30354,7 @@
         <v>1093</v>
       </c>
       <c r="E535" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B535) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B535) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30380,7 +30366,7 @@
         <v>1095</v>
       </c>
       <c r="E536" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B536) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B536) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30392,7 +30378,7 @@
         <v>1097</v>
       </c>
       <c r="E537" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B537) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B537) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30404,7 +30390,7 @@
         <v>1099</v>
       </c>
       <c r="E538" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B538) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B538) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30416,7 +30402,7 @@
         <v>1101</v>
       </c>
       <c r="E539" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B539) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B539) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30428,7 +30414,7 @@
         <v>1103</v>
       </c>
       <c r="E540" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B540) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B540) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -30440,415 +30426,415 @@
         <v>1105</v>
       </c>
       <c r="E541" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B541) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B541) &gt; 0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="542" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E542" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B542) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B542) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="543" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E543" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B543) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B543) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="544" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E544" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B544) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B544) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="545" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E545" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B545) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B545) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="546" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E546" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B546) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B546) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="547" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E547" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B547) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B547) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="548" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E548" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B548) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B548) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="549" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E549" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B549) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B549) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="550" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E550" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B550) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B550) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="551" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E551" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B551) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B551) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="552" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E552" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B552) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B552) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="553" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E553" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B553) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B553) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="554" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E554" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B554) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B554) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="555" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E555" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B555) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B555) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="556" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E556" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B556) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B556) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="557" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E557" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B557) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B557) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="558" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E558" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B558) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B558) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="559" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E559" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B559) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B559) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="560" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E560" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B560) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B560) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="561" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E561" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B561) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B561) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="562" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E562" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B562) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B562) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="563" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E563" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B563) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B563) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="564" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E564" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B564) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B564) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="565" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E565" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B565) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B565) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="566" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E566" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B566) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B566) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="567" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E567" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B567) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B567) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="568" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E568" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B568) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B568) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="569" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E569" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B569) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B569) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="570" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E570" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B570) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B570) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="571" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E571" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B571) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B571) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="572" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E572" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B572) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B572) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="573" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E573" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B573) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B573) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="574" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E574" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B574) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B574) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="575" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E575" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B575) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B575) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="576" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E576" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B576) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B576) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="577" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E577" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B577) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B577) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="578" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E578" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B578) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B578) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="579" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E579" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B579) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B579) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="580" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E580" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B580) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B580) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="581" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E581" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B581) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B581) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="582" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E582" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B582) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B582) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="583" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E583" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B583) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B583) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="584" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E584" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B584) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B584) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="585" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E585" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B585) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B585) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="586" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E586" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B586) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B586) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="587" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E587" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B587) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B587) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="588" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E588" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B588) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B588) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="589" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E589" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B589) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B589) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="590" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E590" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B590) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B590) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="591" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E591" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B591) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B591) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="592" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E592" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B592) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B592) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="593" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E593" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B593) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B593) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="594" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E594" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B594) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B594) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="595" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E595" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B595) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B595) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="596" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E596" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B596) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B596) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="597" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E597" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B597) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B597) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="598" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E598" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B598) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B598) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="599" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E599" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B599) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B599) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="600" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E600" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B600) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B600) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="601" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E601" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B601) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B601) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="602" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E602" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B602) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B602) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="603" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E603" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B603) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B603) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="604" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E604" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B604) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B604) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="605" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E605" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B605) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B605) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="606" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E606" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B606) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B606) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="607" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E607" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B607) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B607) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="608" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E608" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B608) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B608) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="609" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E609" t="str">
-        <f>IF(COUNTIF(Sheet1!A:A, B609) &gt; 0, "Yes", "No")</f>
+        <f>IF(COUNTIF(QuickSpecsList!A:A, B609) &gt; 0, "Yes", "No")</f>
         <v>No</v>
       </c>
     </row>
@@ -30860,6 +30846,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE20D9C8-0F1D-4AD8-924C-CFC3667E31BC}">
+  <sheetPr>
+    <tabColor theme="2"/>
+  </sheetPr>
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30981,10 +30970,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF369B83-3AB9-4C06-BA5D-6E4533F0DAEE}">
+  <sheetPr>
+    <tabColor theme="2"/>
+  </sheetPr>
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/QuickspecsDB.xlsx
+++ b/QuickspecsDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hp-my.sharepoint.com/personal/daunou_hp_com/Documents/Quickspecs SCRIPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{553D3FF9-AFF2-4F0F-B5C8-BEA54C927D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B4C789D-4709-4FF9-918C-A1D4D105B757}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{553D3FF9-AFF2-4F0F-B5C8-BEA54C927D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8E3C32F-AD6D-409F-BFD2-92FF2D28E9E2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16296" activeTab="1" xr2:uid="{498DE967-2523-46FD-97F3-30D847CED5BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16296" xr2:uid="{498DE967-2523-46FD-97F3-30D847CED5BA}"/>
   </bookViews>
   <sheets>
     <sheet name="QuickSpecsList" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="1165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="1165">
   <si>
     <t>DocID</t>
   </si>
@@ -3963,13 +3963,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78150D6D-7D45-48D5-8B3A-7343EBFE63DE}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:G536"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F537" sqref="F537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4005,7 +4005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06002143</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05935170</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05935171</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06907936</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06951538</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06523874</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07833187</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07028700</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08142928</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06636833</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04984422</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04957273</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05561757</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05105339</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06457771</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07048012</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06774625</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06057951</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06220112</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06471245</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06133533</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06113165</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07000417</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06647615</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06647621</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08701375</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06227520</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06102441</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07068977</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07072827</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06002139</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08747764</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08392793</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06137581</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06718497</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06208538</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07606978</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06790038</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06631165</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06887416</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>104</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06275004</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>106</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06489909</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>109</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06724012</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>111</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05389396</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>113</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06724394</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06710300</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>117</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04798669</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>119</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08392794</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>121</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08733836</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>123</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06305129</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>125</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06208782</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>127</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08262305</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>129</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08689018</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>131</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08148468</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>133</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08339701</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>135</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07087546</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>137</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04200260</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>139</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09037963</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>141</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08626170</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>143</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07072088</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>146</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06721769</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>148</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07072832</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>151</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09112465</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>154</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04140720</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>157</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08007804</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>159</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06034418</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>161</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05987463</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>163</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08487724</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>165</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08438687</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>167</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08152871</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>169</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06977947</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>171</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09073631</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>173</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09073637</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>175</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09126888</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>177</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09073638</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>180</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08479496</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>182</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08924023</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>184</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08480176</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>186</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07538156</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>188</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09091538</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08677229</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>192</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08893149</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>194</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08820877</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>196</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08479495</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>198</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09119722</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>200</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08482306</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>202</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08894835</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>204</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07856867</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>206</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06208780</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>208</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05693477</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>210</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08487721</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>212</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09053142</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>214</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08060889</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>216</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08580127</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>218</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08481500</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>220</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07718767</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>222</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08487725</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>225</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07949015</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>227</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07020712</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>229</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08677226</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>231</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09003644</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>233</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06973545</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>235</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08480164</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>237</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08918347</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>239</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08148300</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>241</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08993016</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>243</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09146964</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>246</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09146965</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>249</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09085195</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>251</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09085194</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>253</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09083467</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>255</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09085103</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>257</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04168358</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>259</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08049273</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>261</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07722440</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>263</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06922720</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>265</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04349129</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>267</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08202580</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>269</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08138918</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>271</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08677219</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>273</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08094093</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>276</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08876530</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>278</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06142921</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>280</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08982819</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>282</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05591685</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>284</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06636832</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>286</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04808495</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>288</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08570892</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>290</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06939061</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>292</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09002401</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>294</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08345489</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>296</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07718766</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>298</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06393061</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>300</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08559813</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>302</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08160125</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>304</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07718768</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>306</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06043924</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>308</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06040430</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>310</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05979334</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>312</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06500694</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>314</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07008448</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>318</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08552811</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>320</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05527763</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>322</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08487726</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>324</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08552810</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>326</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04743502</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>328</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08991745</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>330</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09158404</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>332</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09120491</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>334</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09120492</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>336</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08112669</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>338</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08876531</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>340</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09100635</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>342</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08460852</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>344</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08460850</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>346</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08927103</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>348</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08893141</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>350</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09085101</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>352</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08701378</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>354</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08980879</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>356</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09119776</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>359</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09119775</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>361</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08818352</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>363</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08433427</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>365</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08982818</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>367</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09097608</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>369</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09097610</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>371</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09118365</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>373</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09118366</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>375</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09153573</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>377</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09153574</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>379</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06986242</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>381</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08433426</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>383</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08908497</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>385</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08244682</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>387</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09064416</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>389</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08327446</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>391</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09121528</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>393</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09120200</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>395</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09120201</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>397</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04964757</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>399</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06207719</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>401</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05854828</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>403</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08219445</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>405</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07026077</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>407</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05466011</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>409</v>
       </c>
@@ -10999,12 +10999,15 @@
 )</f>
         <v>G3</v>
       </c>
+      <c r="F189" t="s">
+        <v>9</v>
+      </c>
       <c r="G189" t="str">
         <f t="shared" si="2"/>
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04802443</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>411</v>
       </c>
@@ -11040,7 +11043,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06527241</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>413</v>
       </c>
@@ -11079,7 +11082,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07713009</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>415</v>
       </c>
@@ -11110,7 +11113,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04337549</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>417</v>
       </c>
@@ -11138,7 +11141,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06269802</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>419</v>
       </c>
@@ -11180,7 +11183,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06710184</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>421</v>
       </c>
@@ -11216,7 +11219,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08423198</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>423</v>
       </c>
@@ -11247,7 +11250,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04318044</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>425</v>
       </c>
@@ -11286,7 +11289,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04111599</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>427</v>
       </c>
@@ -11328,7 +11331,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06914244</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>429</v>
       </c>
@@ -11356,7 +11359,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08081408</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>431</v>
       </c>
@@ -11392,7 +11395,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08754941</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>433</v>
       </c>
@@ -11434,7 +11437,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07735356</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>435</v>
       </c>
@@ -11479,7 +11482,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06978062</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>437</v>
       </c>
@@ -11521,7 +11524,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07830744</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>439</v>
       </c>
@@ -11563,7 +11566,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06431185</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>441</v>
       </c>
@@ -11599,7 +11602,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06721772</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>443</v>
       </c>
@@ -11635,7 +11638,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06724393</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>445</v>
       </c>
@@ -11677,7 +11680,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06912216</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>447</v>
       </c>
@@ -11713,7 +11716,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06711625</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>449</v>
       </c>
@@ -11755,7 +11758,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07833061</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>451</v>
       </c>
@@ -11797,7 +11800,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06500782</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>453</v>
       </c>
@@ -11833,7 +11836,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06506552</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>455</v>
       </c>
@@ -11861,7 +11864,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04964352</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>457</v>
       </c>
@@ -11903,7 +11906,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06527271</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>459</v>
       </c>
@@ -11945,7 +11948,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06320288</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>461</v>
       </c>
@@ -11981,7 +11984,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08423202</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>463</v>
       </c>
@@ -12023,7 +12026,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08152870</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>465</v>
       </c>
@@ -12065,7 +12068,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08152869</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>467</v>
       </c>
@@ -12107,7 +12110,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07959341</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>469</v>
       </c>
@@ -12149,7 +12152,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07538091</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>471</v>
       </c>
@@ -12185,7 +12188,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06631380</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>473</v>
       </c>
@@ -12213,7 +12216,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08315316</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>475</v>
       </c>
@@ -12255,7 +12258,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05527761</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>477</v>
       </c>
@@ -12283,7 +12286,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08137760</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>479</v>
       </c>
@@ -12319,7 +12322,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08423206</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>481</v>
       </c>
@@ -12355,7 +12358,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08183760</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>483</v>
       </c>
@@ -12391,7 +12394,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07606984</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>485</v>
       </c>
@@ -12433,7 +12436,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06887263</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>487</v>
       </c>
@@ -12469,7 +12472,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06922716</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>489</v>
       </c>
@@ -12505,7 +12508,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06922717</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>491</v>
       </c>
@@ -12541,7 +12544,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08733837</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>493</v>
       </c>
@@ -12577,7 +12580,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08733838</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>495</v>
       </c>
@@ -12605,7 +12608,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08822317</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>497</v>
       </c>
@@ -12641,7 +12644,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08262303</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>499</v>
       </c>
@@ -12677,7 +12680,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08262301</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>501</v>
       </c>
@@ -12713,7 +12716,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08262307</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>503</v>
       </c>
@@ -12749,7 +12752,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08262304</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>505</v>
       </c>
@@ -12791,7 +12794,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06102151</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>507</v>
       </c>
@@ -12833,7 +12836,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05665627</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>509</v>
       </c>
@@ -12875,7 +12878,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06640111</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>511</v>
       </c>
@@ -12911,7 +12914,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08310347</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>513</v>
       </c>
@@ -12953,7 +12956,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08982817</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>515</v>
       </c>
@@ -12989,7 +12992,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07029156</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>516</v>
       </c>
@@ -13025,7 +13028,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06951520</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>518</v>
       </c>
@@ -13057,7 +13060,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05825493</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>520</v>
       </c>
@@ -13085,7 +13088,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08611076</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>522</v>
       </c>
@@ -13113,7 +13116,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07020706</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>524</v>
       </c>
@@ -13149,7 +13152,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08392797</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>526</v>
       </c>
@@ -13191,7 +13194,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08098771</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>528</v>
       </c>
@@ -13227,7 +13230,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06973543</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>530</v>
       </c>
@@ -13269,7 +13272,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05572874</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>532</v>
       </c>
@@ -13311,7 +13314,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08487728</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>534</v>
       </c>
@@ -13353,7 +13356,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08150789</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>536</v>
       </c>
@@ -13381,7 +13384,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06043727</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>538</v>
       </c>
@@ -13423,7 +13426,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06042439</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>540</v>
       </c>
@@ -13459,7 +13462,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06118511</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>542</v>
       </c>
@@ -13495,7 +13498,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06046117</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>544</v>
       </c>
@@ -13537,7 +13540,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05572880</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>546</v>
       </c>
@@ -13579,7 +13582,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07538129</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>548</v>
       </c>
@@ -13621,7 +13624,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08143475</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>550</v>
       </c>
@@ -13663,7 +13666,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08007865</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>552</v>
       </c>
@@ -13705,7 +13708,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08143445</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>554</v>
       </c>
@@ -13733,7 +13736,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07020719</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>556</v>
       </c>
@@ -13761,7 +13764,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06953003</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>558</v>
       </c>
@@ -13789,7 +13792,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09033579</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>561</v>
       </c>
@@ -13825,7 +13828,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08051152</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>563</v>
       </c>
@@ -13853,7 +13856,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04961223</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>565</v>
       </c>
@@ -13889,7 +13892,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05693273</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>567</v>
       </c>
@@ -13931,7 +13934,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06040429</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>569</v>
       </c>
@@ -13967,7 +13970,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04782353</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>571</v>
       </c>
@@ -13995,7 +13998,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06245039</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>573</v>
       </c>
@@ -14037,7 +14040,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06305136</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>575</v>
       </c>
@@ -14065,7 +14068,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04123406</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>577</v>
       </c>
@@ -14101,7 +14104,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08580553</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>579</v>
       </c>
@@ -14143,7 +14146,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08049271</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>581</v>
       </c>
@@ -14179,7 +14182,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08392795</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>583</v>
       </c>
@@ -14221,7 +14224,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07047984</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>585</v>
       </c>
@@ -14249,7 +14252,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08479498</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>587</v>
       </c>
@@ -14291,7 +14294,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08620692</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>589</v>
       </c>
@@ -14333,7 +14336,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09003642</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>591</v>
       </c>
@@ -14375,7 +14378,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09053141</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>593</v>
       </c>
@@ -14417,7 +14420,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09053143</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>595</v>
       </c>
@@ -14459,7 +14462,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05527757</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>597</v>
       </c>
@@ -14495,7 +14498,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08133183</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>598</v>
       </c>
@@ -14531,7 +14534,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07012337</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>600</v>
       </c>
@@ -14559,7 +14562,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06468161</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>602</v>
       </c>
@@ -14601,7 +14604,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06431221</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>604</v>
       </c>
@@ -14629,7 +14632,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08411168</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>606</v>
       </c>
@@ -14665,7 +14668,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07927484</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>609</v>
       </c>
@@ -14693,7 +14696,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08960410</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>611</v>
       </c>
@@ -14735,7 +14738,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04123121</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>613</v>
       </c>
@@ -14753,7 +14756,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06014144</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>615</v>
       </c>
@@ -14795,7 +14798,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07607106</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>617</v>
       </c>
@@ -14837,7 +14840,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06977950</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>619</v>
       </c>
@@ -14879,7 +14882,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07606964</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>621</v>
       </c>
@@ -14907,7 +14910,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08017466</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>623</v>
       </c>
@@ -14949,7 +14952,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09003643</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>625</v>
       </c>
@@ -14991,7 +14994,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08007805</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>627</v>
       </c>
@@ -15033,7 +15036,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08982816</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>629</v>
       </c>
@@ -15075,7 +15078,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08487730</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>631</v>
       </c>
@@ -15117,7 +15120,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08049272</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>633</v>
       </c>
@@ -15153,7 +15156,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08423193</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>635</v>
       </c>
@@ -15195,7 +15198,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09053766</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>637</v>
       </c>
@@ -15237,7 +15240,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08152872</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>639</v>
       </c>
@@ -15279,7 +15282,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06102173</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>641</v>
       </c>
@@ -15315,7 +15318,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08262306</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>643</v>
       </c>
@@ -15343,7 +15346,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08017465</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>645</v>
       </c>
@@ -15385,7 +15388,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08937569</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>647</v>
       </c>
@@ -15427,7 +15430,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08481321</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>649</v>
       </c>
@@ -15469,7 +15472,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08703891</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>651</v>
       </c>
@@ -15511,7 +15514,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08482167</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>653</v>
       </c>
@@ -15547,7 +15550,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08183681</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>655</v>
       </c>
@@ -15583,7 +15586,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08916513</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>657</v>
       </c>
@@ -15625,7 +15628,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08818351</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>659</v>
       </c>
@@ -15667,7 +15670,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09086134</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>661</v>
       </c>
@@ -15709,7 +15712,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08821385</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>663</v>
       </c>
@@ -15737,7 +15740,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09073627</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>665</v>
       </c>
@@ -15779,7 +15782,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08148299</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>667</v>
       </c>
@@ -15821,7 +15824,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09097613</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>669</v>
       </c>
@@ -15863,7 +15866,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09097612</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>671</v>
       </c>
@@ -15891,7 +15894,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08908274</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>673</v>
       </c>
@@ -15933,7 +15936,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08908273</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>675</v>
       </c>
@@ -15975,7 +15978,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08915793</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>677</v>
       </c>
@@ -16017,7 +16020,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08915794</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>679</v>
       </c>
@@ -16059,7 +16062,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09085102</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>681</v>
       </c>
@@ -16087,7 +16090,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09133724</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>683</v>
       </c>
@@ -16129,7 +16132,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09059224</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>685</v>
       </c>
@@ -16165,7 +16168,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08017709</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>687</v>
       </c>
@@ -16207,7 +16210,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08908496</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>689</v>
       </c>
@@ -16249,7 +16252,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08915560</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>691</v>
       </c>
@@ -16291,7 +16294,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09120198</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>693</v>
       </c>
@@ -16333,7 +16336,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09120199</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>695</v>
       </c>
@@ -16375,7 +16378,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07856866</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>697</v>
       </c>
@@ -16403,7 +16406,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08438689</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>699</v>
       </c>
@@ -16439,7 +16442,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07933724</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>701</v>
       </c>
@@ -16467,7 +16470,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09073626</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>703</v>
       </c>
@@ -16509,7 +16512,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09083466</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>705</v>
       </c>
@@ -16545,7 +16548,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09156739</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>707</v>
       </c>
@@ -16587,7 +16590,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08816192</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>709</v>
       </c>
@@ -16629,7 +16632,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08893145</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>711</v>
       </c>
@@ -16671,7 +16674,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08893150</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>713</v>
       </c>
@@ -16713,7 +16716,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08893144</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>715</v>
       </c>
@@ -16749,7 +16752,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08183724</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>717</v>
       </c>
@@ -16791,7 +16794,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08954703</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>719</v>
       </c>
@@ -16833,7 +16836,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08109685</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>721</v>
       </c>
@@ -16869,7 +16872,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08174111</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>723</v>
       </c>
@@ -16897,7 +16900,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05543201</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>725</v>
       </c>
@@ -16925,7 +16928,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08479497</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>727</v>
       </c>
@@ -16943,7 +16946,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09158403</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>729</v>
       </c>
@@ -16985,7 +16988,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08893142</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>731</v>
       </c>
@@ -17027,7 +17030,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08460851</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>733</v>
       </c>
@@ -17069,7 +17072,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08487722</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>735</v>
       </c>
@@ -17111,7 +17114,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08927104</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>737</v>
       </c>
@@ -17153,7 +17156,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09133729</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>739</v>
       </c>
@@ -17195,7 +17198,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09111175</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>741</v>
       </c>
@@ -17237,7 +17240,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09102587</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>743</v>
       </c>
@@ -17279,7 +17282,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09111176</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>745</v>
       </c>
@@ -17321,7 +17324,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09111179</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>747</v>
       </c>
@@ -17363,7 +17366,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09100636</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>749</v>
       </c>
@@ -17405,7 +17408,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09100634</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>751</v>
       </c>
@@ -17447,7 +17450,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09102584</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>753</v>
       </c>
@@ -17489,7 +17492,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08880576</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>755</v>
       </c>
@@ -17531,7 +17534,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08880575</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>757</v>
       </c>
@@ -17573,7 +17576,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08880574</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>759</v>
       </c>
@@ -17615,7 +17618,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09133726</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>761</v>
       </c>
@@ -17657,7 +17660,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08109687</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>763</v>
       </c>
@@ -17699,7 +17702,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09153568</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>765</v>
       </c>
@@ -17741,7 +17744,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09133727</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>767</v>
       </c>
@@ -17783,7 +17786,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09133728</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>769</v>
       </c>
@@ -17825,7 +17828,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09133730</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>771</v>
       </c>
@@ -17867,7 +17870,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09133725</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>773</v>
       </c>
@@ -17909,7 +17912,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08111505</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>775</v>
       </c>
@@ -17937,7 +17940,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09053765</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>777</v>
       </c>
@@ -17979,7 +17982,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09073623</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>779</v>
       </c>
@@ -18015,7 +18018,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09121527</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>781</v>
       </c>
@@ -18057,7 +18060,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09156355</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>783</v>
       </c>
@@ -18093,7 +18096,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07072047</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>785</v>
       </c>
@@ -18125,7 +18128,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05477268</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>787</v>
       </c>
@@ -18153,7 +18156,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04957266</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>791</v>
       </c>
@@ -18198,7 +18201,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06514719</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>793</v>
       </c>
@@ -18234,7 +18237,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06347327</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>795</v>
       </c>
@@ -18270,7 +18273,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06159406</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>797</v>
       </c>
@@ -18315,7 +18318,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06467148</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>799</v>
       </c>
@@ -18346,7 +18349,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08210813</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>801</v>
       </c>
@@ -18382,7 +18385,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08310351</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>803</v>
       </c>
@@ -18413,7 +18416,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08624212</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>805</v>
       </c>
@@ -18444,7 +18447,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08622396</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>807</v>
       </c>
@@ -18489,7 +18492,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06952549</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>809</v>
       </c>
@@ -18534,7 +18537,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06061735</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>811</v>
       </c>
@@ -18565,7 +18568,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04747405</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>813</v>
       </c>
@@ -18596,7 +18599,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06042607</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>815</v>
       </c>
@@ -18617,7 +18620,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05389356</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>817</v>
       </c>
@@ -18648,7 +18651,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06043772</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>819</v>
       </c>
@@ -18679,7 +18682,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06043749</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>821</v>
       </c>
@@ -18715,7 +18718,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08692716</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>823</v>
       </c>
@@ -18746,7 +18749,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06429537</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>825</v>
       </c>
@@ -18788,7 +18791,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06045417</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>827</v>
       </c>
@@ -18830,7 +18833,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05987462</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>829</v>
       </c>
@@ -18858,7 +18861,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05893139</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>831</v>
       </c>
@@ -18886,7 +18889,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06314289</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>833</v>
       </c>
@@ -18931,7 +18934,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06543048</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>835</v>
       </c>
@@ -18973,7 +18976,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09048046</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>837</v>
       </c>
@@ -19015,7 +19018,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08622395</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>839</v>
       </c>
@@ -19057,7 +19060,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07856868</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>841</v>
       </c>
@@ -19093,7 +19096,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07062920</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>843</v>
       </c>
@@ -19135,7 +19138,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08487729</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>845</v>
       </c>
@@ -19177,7 +19180,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07949016</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>847</v>
       </c>
@@ -19213,7 +19216,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08392796</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>849</v>
       </c>
@@ -19255,7 +19258,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08620446</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>851</v>
       </c>
@@ -19283,7 +19286,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08487727</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>853</v>
       </c>
@@ -19325,7 +19328,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08005734</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>855</v>
       </c>
@@ -19361,7 +19364,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08169372</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>857</v>
       </c>
@@ -19389,7 +19392,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04964788</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>859</v>
       </c>
@@ -19424,7 +19427,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09018515</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>862</v>
       </c>
@@ -19452,7 +19455,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08411169</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>864</v>
       </c>
@@ -19488,7 +19491,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07072830</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>866</v>
       </c>
@@ -19514,7 +19517,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08409209</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>868</v>
       </c>
@@ -19556,7 +19559,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06596847</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>870</v>
       </c>
@@ -19592,7 +19595,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04123365</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>872</v>
       </c>
@@ -19628,7 +19631,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05573121</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>874</v>
       </c>
@@ -19664,7 +19667,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08310350</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>876</v>
       </c>
@@ -19706,7 +19709,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09037964</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>878</v>
       </c>
@@ -19748,7 +19751,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08580055</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>880</v>
       </c>
@@ -19790,7 +19793,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08406316</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>882</v>
       </c>
@@ -19832,7 +19835,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08954642</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>884</v>
       </c>
@@ -19868,7 +19871,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08060742</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>886</v>
       </c>
@@ -19903,7 +19906,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09073630</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>888</v>
       </c>
@@ -19945,7 +19948,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09073635</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>890</v>
       </c>
@@ -19981,7 +19984,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08133181</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>891</v>
       </c>
@@ -20023,7 +20026,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09073632</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>893</v>
       </c>
@@ -20065,7 +20068,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08660924</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>895</v>
       </c>
@@ -20107,7 +20110,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08923221</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>897</v>
       </c>
@@ -20149,7 +20152,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08410991</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>899</v>
       </c>
@@ -20185,7 +20188,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08628727</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>901</v>
       </c>
@@ -20227,7 +20230,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08893148</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>903</v>
       </c>
@@ -20269,7 +20272,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08893147</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>905</v>
       </c>
@@ -20297,7 +20300,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08905304</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>907</v>
       </c>
@@ -20325,7 +20328,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08479494</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>909</v>
       </c>
@@ -20367,7 +20370,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09135496</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>911</v>
       </c>
@@ -20409,7 +20412,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08049276</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>913</v>
       </c>
@@ -20437,7 +20440,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08017463</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>915</v>
       </c>
@@ -20479,7 +20482,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08007866</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>917</v>
       </c>
@@ -20507,7 +20510,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08017464</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>919</v>
       </c>
@@ -20549,7 +20552,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06978059</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>921</v>
       </c>
@@ -20591,7 +20594,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06978061</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>923</v>
       </c>
@@ -20633,7 +20636,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08552777</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>925</v>
       </c>
@@ -20675,7 +20678,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08438688</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>927</v>
       </c>
@@ -20740,12 +20743,15 @@
 )</f>
         <v>G8</v>
       </c>
+      <c r="F448" t="s">
+        <v>9</v>
+      </c>
       <c r="G448" t="str">
         <f t="shared" si="6"/>
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06969250</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>931</v>
       </c>
@@ -20787,7 +20793,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08854784</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>933</v>
       </c>
@@ -20829,7 +20835,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08007864</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>935</v>
       </c>
@@ -20871,7 +20877,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05573243</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>937</v>
       </c>
@@ -20907,7 +20913,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05814610</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>938</v>
       </c>
@@ -20949,7 +20955,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05389395</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>940</v>
       </c>
@@ -20977,7 +20983,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06469336</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>942</v>
       </c>
@@ -21019,7 +21025,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06914243</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>944</v>
       </c>
@@ -21047,7 +21053,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08747078</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>946</v>
       </c>
@@ -21075,7 +21081,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05389400</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>948</v>
       </c>
@@ -21111,7 +21117,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08423213</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>950</v>
       </c>
@@ -21147,7 +21153,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08392792</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>952</v>
       </c>
@@ -21189,7 +21195,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06978060</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>954</v>
       </c>
@@ -21225,7 +21231,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07316508</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>956</v>
       </c>
@@ -21267,7 +21273,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06431211</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>958</v>
       </c>
@@ -21295,7 +21301,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06457091</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>960</v>
       </c>
@@ -21337,7 +21343,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08876529</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>962</v>
       </c>
@@ -21379,7 +21385,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08854782</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>964</v>
       </c>
@@ -21407,7 +21413,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08893320</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>966</v>
       </c>
@@ -21443,7 +21449,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08310349</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>968</v>
       </c>
@@ -21471,7 +21477,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06543416</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>970</v>
       </c>
@@ -21513,7 +21519,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07029155</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>972</v>
       </c>
@@ -21555,7 +21561,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07065967</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>974</v>
       </c>
@@ -21591,7 +21597,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06461733</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>976</v>
       </c>
@@ -21627,7 +21633,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06956483</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>978</v>
       </c>
@@ -21645,7 +21651,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06630565</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>980</v>
       </c>
@@ -21673,7 +21679,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07057403</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>982</v>
       </c>
@@ -21715,7 +21721,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07065867</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>984</v>
       </c>
@@ -21743,7 +21749,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06674861</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>986</v>
       </c>
@@ -21779,7 +21785,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06951158</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>988</v>
       </c>
@@ -21807,7 +21813,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07870878</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>990</v>
       </c>
@@ -21843,7 +21849,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06922715</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>992</v>
       </c>
@@ -21879,7 +21885,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06951537</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>994</v>
       </c>
@@ -21915,7 +21921,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06973544</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>996</v>
       </c>
@@ -21951,7 +21957,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07318697</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>998</v>
       </c>
@@ -21987,7 +21993,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07660323</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>1000</v>
       </c>
@@ -22015,7 +22021,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04168399</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>1002</v>
       </c>
@@ -22057,7 +22063,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06043763</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>1004</v>
       </c>
@@ -22085,7 +22091,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06264670</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>1006</v>
       </c>
@@ -22127,7 +22133,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05941107</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>1008</v>
       </c>
@@ -22169,7 +22175,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05572133</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>1010</v>
       </c>
@@ -22211,7 +22217,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06269801</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>1012</v>
       </c>
@@ -22239,7 +22245,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08049274</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>1014</v>
       </c>
@@ -22281,7 +22287,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07928667</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>1016</v>
       </c>
@@ -22323,7 +22329,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08406315</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>1018</v>
       </c>
@@ -22349,7 +22355,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08336129</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>1020</v>
       </c>
@@ -22391,7 +22397,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08049275</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>1022</v>
       </c>
@@ -22427,7 +22433,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08135041</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>1024</v>
       </c>
@@ -22455,7 +22461,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09146969</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>1026</v>
       </c>
@@ -22483,7 +22489,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08138401</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>1028</v>
       </c>
@@ -22519,7 +22525,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09120490</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>1030</v>
       </c>
@@ -22547,7 +22553,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04123334</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>1032</v>
       </c>
@@ -22575,7 +22581,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08308931</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>1034</v>
       </c>
@@ -22603,7 +22609,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08376528</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>1036</v>
       </c>
@@ -22639,7 +22645,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04573649</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>1038</v>
       </c>
@@ -22681,7 +22687,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09102586</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>1040</v>
       </c>
@@ -22723,7 +22729,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09097609</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>1042</v>
       </c>
@@ -22765,7 +22771,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09097611</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>1044</v>
       </c>
@@ -22807,7 +22813,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09102585</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>1046</v>
       </c>
@@ -22849,7 +22855,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08628726</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>1048</v>
       </c>
@@ -22891,7 +22897,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08915500</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>1050</v>
       </c>
@@ -22927,7 +22933,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08017769</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>1051</v>
       </c>
@@ -22969,7 +22975,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09120197</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>1053</v>
       </c>
@@ -23011,7 +23017,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09120196</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>1055</v>
       </c>
@@ -23053,7 +23059,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09073636</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>1057</v>
       </c>
@@ -23089,7 +23095,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08017710</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>1059</v>
       </c>
@@ -23131,7 +23137,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08915792</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>1061</v>
       </c>
@@ -23149,7 +23155,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09168549</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>1063</v>
       </c>
@@ -23191,7 +23197,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09080731</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>1065</v>
       </c>
@@ -23233,7 +23239,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08945857</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>1067</v>
       </c>
@@ -23275,7 +23281,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09133731</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>1069</v>
       </c>
@@ -23317,7 +23323,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09111178</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>1071</v>
       </c>
@@ -23359,7 +23365,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09111177</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>1073</v>
       </c>
@@ -23401,7 +23407,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08893140</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>1075</v>
       </c>
@@ -23443,7 +23449,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08480165</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>1077</v>
       </c>
@@ -23479,7 +23485,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08818350</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>1080</v>
       </c>
@@ -23521,7 +23527,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09080730</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>1082</v>
       </c>
@@ -23563,7 +23569,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09073622</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>1084</v>
       </c>
@@ -23591,7 +23597,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09180289</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>1086</v>
       </c>
@@ -23633,7 +23639,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07727081</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>1088</v>
       </c>
@@ -23675,7 +23681,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09153575</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>1090</v>
       </c>
@@ -23717,7 +23723,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09094897</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>1092</v>
       </c>
@@ -23759,7 +23765,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08854791</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>1094</v>
       </c>
@@ -23785,7 +23791,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09010549</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>1096</v>
       </c>
@@ -23813,7 +23819,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04164169</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>1098</v>
       </c>
@@ -23855,7 +23861,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08409082</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>1100</v>
       </c>
@@ -23883,7 +23889,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09053763</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>1102</v>
       </c>
@@ -23911,7 +23917,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09053764</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>1104</v>
       </c>
@@ -23940,7 +23946,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G536" xr:uid="{78150D6D-7D45-48D5-8B3A-7343EBFE63DE}"/>
+  <autoFilter ref="A1:G536" xr:uid="{78150D6D-7D45-48D5-8B3A-7343EBFE63DE}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Notebooks"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="G8"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23952,7 +23969,7 @@
   </sheetPr>
   <dimension ref="B1:E609"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/QuickspecsDB.xlsx
+++ b/QuickspecsDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hp-my.sharepoint.com/personal/daunou_hp_com/Documents/Quickspecs SCRIPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="8_{553D3FF9-AFF2-4F0F-B5C8-BEA54C927D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8E3C32F-AD6D-409F-BFD2-92FF2D28E9E2}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{553D3FF9-AFF2-4F0F-B5C8-BEA54C927D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{382D350E-C420-46A9-B746-927C41333A3C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16296" xr2:uid="{498DE967-2523-46FD-97F3-30D847CED5BA}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="1165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="1166">
   <si>
     <t>DocID</t>
   </si>
@@ -3560,6 +3560,9 @@
   </si>
   <si>
     <t>ZBook</t>
+  </si>
+  <si>
+    <t>Desktop Workstation</t>
   </si>
 </sst>
 </file>
@@ -3968,8 +3971,8 @@
   </sheetPr>
   <dimension ref="A1:G536"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F537" sqref="F537"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D470" sqref="D470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4588,6 +4591,9 @@
 )</f>
         <v>G7</v>
       </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06457771</v>
@@ -5261,7 +5267,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06137581</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -5272,7 +5278,7 @@
         <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>1165</v>
       </c>
       <c r="E36" t="str" cm="1">
         <f t="array" ref="E36">_xlfn.LET(
@@ -5542,7 +5548,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06489909</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>109</v>
       </c>
@@ -5560,14 +5566,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D44" t="str" cm="1">
-        <f t="array" ref="D44">_xlfn.LET(
-  _xlpm.text, B44,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D44" t="s">
+        <v>1165</v>
       </c>
       <c r="E44" t="str" cm="1">
         <f t="array" ref="E44">_xlfn.LET(
@@ -6430,7 +6430,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06034418</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>161</v>
       </c>
@@ -6448,14 +6448,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D68" t="str" cm="1">
-        <f t="array" ref="D68">_xlfn.LET(
-  _xlpm.text, B68,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D68" t="s">
+        <v>1165</v>
       </c>
       <c r="E68" t="str" cm="1">
         <f t="array" ref="E68">_xlfn.LET(
@@ -6888,16 +6882,6 @@
 )</f>
         <v>Dragonfly</v>
       </c>
-      <c r="E79" t="str" cm="1">
-        <f t="array" ref="E79">_xlfn.LET(
-  _xlpm.text, " " &amp; B79 &amp; " ",
-  _xlpm.keywords, GenList!$A$1:$A$100,
-  _xlpm.paddedKeywords, " " &amp; _xlpm.keywords &amp; " ",
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.paddedKeywords, _xlpm.text))),
-  IFERROR(INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>G4</v>
-      </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08480176</v>
@@ -7147,7 +7131,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09119722</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>200</v>
       </c>
@@ -7165,14 +7149,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D87" t="str" cm="1">
-        <f t="array" ref="D87">_xlfn.LET(
-  _xlpm.text, B87,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D87" t="s">
+        <v>1165</v>
       </c>
       <c r="E87" t="str" cm="1">
         <f t="array" ref="E87">_xlfn.LET(
@@ -7477,7 +7455,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08580127</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>218</v>
       </c>
@@ -7495,14 +7473,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D96" t="str" cm="1">
-        <f t="array" ref="D96">_xlfn.LET(
-  _xlpm.text, B96,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D96" t="s">
+        <v>1165</v>
       </c>
       <c r="E96" t="str" cm="1">
         <f t="array" ref="E96">_xlfn.LET(
@@ -7869,14 +7841,8 @@
 )</f>
         <v>Notebooks</v>
       </c>
-      <c r="D106" t="str" cm="1">
-        <f t="array" ref="D106">_xlfn.LET(
-  _xlpm.text, B106,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Dragonfly</v>
+      <c r="D106" t="s">
+        <v>1163</v>
       </c>
       <c r="E106" t="str" cm="1">
         <f t="array" ref="E106">_xlfn.LET(
@@ -8542,6 +8508,9 @@
 )</f>
         <v>G6</v>
       </c>
+      <c r="F124" t="s">
+        <v>9</v>
+      </c>
       <c r="G124" t="str">
         <f t="shared" si="1"/>
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06142921</v>
@@ -8717,7 +8686,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08570892</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>290</v>
       </c>
@@ -8735,14 +8704,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D130" t="str" cm="1">
-        <f t="array" ref="D130">_xlfn.LET(
-  _xlpm.text, B130,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D130" t="s">
+        <v>1165</v>
       </c>
       <c r="E130" t="str" cm="1">
         <f t="array" ref="E130">_xlfn.LET(
@@ -9218,7 +9181,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08143317</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>316</v>
       </c>
@@ -9302,7 +9265,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08552811</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>320</v>
       </c>
@@ -9320,14 +9283,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D145" t="str" cm="1">
-        <f t="array" ref="D145">_xlfn.LET(
-  _xlpm.text, B145,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D145" t="s">
+        <v>1165</v>
       </c>
       <c r="E145" t="str" cm="1">
         <f t="array" ref="E145">_xlfn.LET(
@@ -9580,7 +9537,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09120492</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>336</v>
       </c>
@@ -9591,7 +9548,7 @@
         <v>59</v>
       </c>
       <c r="D153" t="s">
-        <v>92</v>
+        <v>1165</v>
       </c>
       <c r="E153" t="str" cm="1">
         <f t="array" ref="E153">_xlfn.LET(
@@ -10079,6 +10036,9 @@
 )</f>
         <v>G5</v>
       </c>
+      <c r="F165" t="s">
+        <v>9</v>
+      </c>
       <c r="G165" t="str">
         <f t="shared" si="2"/>
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08818352</v>
@@ -11638,7 +11598,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06724393</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>445</v>
       </c>
@@ -11656,14 +11616,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D207" t="str" cm="1">
-        <f t="array" ref="D207">_xlfn.LET(
-  _xlpm.text, B207,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D207" t="s">
+        <v>1165</v>
       </c>
       <c r="E207" t="str" cm="1">
         <f t="array" ref="E207">_xlfn.LET(
@@ -12216,7 +12170,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08315316</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>475</v>
       </c>
@@ -12234,14 +12188,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D222" t="str" cm="1">
-        <f t="array" ref="D222">_xlfn.LET(
-  _xlpm.text, B222,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D222" t="s">
+        <v>1165</v>
       </c>
       <c r="E222" t="str" cm="1">
         <f t="array" ref="E222">_xlfn.LET(
@@ -13267,6 +13215,9 @@
 )</f>
         <v>G5</v>
       </c>
+      <c r="F250" t="s">
+        <v>9</v>
+      </c>
       <c r="G250" t="str">
         <f t="shared" si="3"/>
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05572874</v>
@@ -13535,6 +13486,9 @@
 )</f>
         <v>G5</v>
       </c>
+      <c r="F257" t="s">
+        <v>9</v>
+      </c>
       <c r="G257" t="str">
         <f t="shared" ref="G257:G320" si="4">_xlfn.CONCAT("https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=",A257)</f>
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05572880</v>
@@ -14420,7 +14374,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09053143</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>595</v>
       </c>
@@ -14438,14 +14392,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D282" t="str" cm="1">
-        <f t="array" ref="D282">_xlfn.LET(
-  _xlpm.text, B282,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D282" t="s">
+        <v>1165</v>
       </c>
       <c r="E282" t="str" cm="1">
         <f t="array" ref="E282">_xlfn.LET(
@@ -15388,7 +15336,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08937569</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>647</v>
       </c>
@@ -15406,14 +15354,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D308" t="str" cm="1">
-        <f t="array" ref="D308">_xlfn.LET(
-  _xlpm.text, B308,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D308" t="s">
+        <v>1165</v>
       </c>
       <c r="E308" t="str" cm="1">
         <f t="array" ref="E308">_xlfn.LET(
@@ -15430,7 +15372,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08481321</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>649</v>
       </c>
@@ -15448,14 +15390,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D309" t="str" cm="1">
-        <f t="array" ref="D309">_xlfn.LET(
-  _xlpm.text, B309,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D309" t="s">
+        <v>1165</v>
       </c>
       <c r="E309" t="str" cm="1">
         <f t="array" ref="E309">_xlfn.LET(
@@ -15472,7 +15408,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08703891</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>651</v>
       </c>
@@ -15490,14 +15426,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D310" t="str" cm="1">
-        <f t="array" ref="D310">_xlfn.LET(
-  _xlpm.text, B310,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D310" t="s">
+        <v>1165</v>
       </c>
       <c r="E310" t="str" cm="1">
         <f t="array" ref="E310">_xlfn.LET(
@@ -15670,7 +15600,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09086134</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>661</v>
       </c>
@@ -15688,14 +15618,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D315" t="str" cm="1">
-        <f t="array" ref="D315">_xlfn.LET(
-  _xlpm.text, B315,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D315" t="s">
+        <v>1165</v>
       </c>
       <c r="E315" t="str" cm="1">
         <f t="array" ref="E315">_xlfn.LET(
@@ -15758,14 +15682,8 @@
 )</f>
         <v>Notebooks</v>
       </c>
-      <c r="D317" t="str" cm="1">
-        <f t="array" ref="D317">_xlfn.LET(
-  _xlpm.text, B317,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Dragonfly</v>
+      <c r="D317" t="s">
+        <v>1163</v>
       </c>
       <c r="E317" t="str" cm="1">
         <f t="array" ref="E317">_xlfn.LET(
@@ -16062,7 +15980,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09085102</v>
       </c>
     </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>681</v>
       </c>
@@ -16073,7 +15991,7 @@
         <v>59</v>
       </c>
       <c r="D325" t="s">
-        <v>92</v>
+        <v>1165</v>
       </c>
       <c r="E325" t="str" cm="1">
         <f t="array" ref="E325">_xlfn.LET(
@@ -16794,7 +16712,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08954703</v>
       </c>
     </row>
-    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>719</v>
       </c>
@@ -16812,14 +16730,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D344" t="str" cm="1">
-        <f t="array" ref="D344">_xlfn.LET(
-  _xlpm.text, B344,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D344" t="s">
+        <v>1165</v>
       </c>
       <c r="E344" t="str" cm="1">
         <f t="array" ref="E344">_xlfn.LET(
@@ -17576,7 +17488,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08880574</v>
       </c>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>759</v>
       </c>
@@ -17594,14 +17506,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D364" t="str" cm="1">
-        <f t="array" ref="D364">_xlfn.LET(
-  _xlpm.text, B364,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D364" t="s">
+        <v>1165</v>
       </c>
       <c r="E364" t="str" cm="1">
         <f t="array" ref="E364">_xlfn.LET(
@@ -17618,7 +17524,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09133726</v>
       </c>
     </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>761</v>
       </c>
@@ -17636,14 +17542,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D365" t="str" cm="1">
-        <f t="array" ref="D365">_xlfn.LET(
-  _xlpm.text, B365,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D365" t="s">
+        <v>1165</v>
       </c>
       <c r="E365" t="str" cm="1">
         <f t="array" ref="E365">_xlfn.LET(
@@ -17660,7 +17560,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c08109687</v>
       </c>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>763</v>
       </c>
@@ -17678,14 +17578,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D366" t="str" cm="1">
-        <f t="array" ref="D366">_xlfn.LET(
-  _xlpm.text, B366,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D366" t="s">
+        <v>1165</v>
       </c>
       <c r="E366" t="str" cm="1">
         <f t="array" ref="E366">_xlfn.LET(
@@ -17702,7 +17596,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09153568</v>
       </c>
     </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>765</v>
       </c>
@@ -17720,14 +17614,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D367" t="str" cm="1">
-        <f t="array" ref="D367">_xlfn.LET(
-  _xlpm.text, B367,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D367" t="s">
+        <v>1165</v>
       </c>
       <c r="E367" t="str" cm="1">
         <f t="array" ref="E367">_xlfn.LET(
@@ -17744,7 +17632,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09133727</v>
       </c>
     </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>767</v>
       </c>
@@ -17762,14 +17650,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D368" t="str" cm="1">
-        <f t="array" ref="D368">_xlfn.LET(
-  _xlpm.text, B368,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D368" t="s">
+        <v>1165</v>
       </c>
       <c r="E368" t="str" cm="1">
         <f t="array" ref="E368">_xlfn.LET(
@@ -17828,7 +17710,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09133730</v>
       </c>
     </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>771</v>
       </c>
@@ -17846,14 +17728,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D370" t="str" cm="1">
-        <f t="array" ref="D370">_xlfn.LET(
-  _xlpm.text, B370,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D370" t="s">
+        <v>1165</v>
       </c>
       <c r="E370" t="str" cm="1">
         <f t="array" ref="E370">_xlfn.LET(
@@ -17870,7 +17746,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c09133725</v>
       </c>
     </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>773</v>
       </c>
@@ -17888,14 +17764,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D371" t="str" cm="1">
-        <f t="array" ref="D371">_xlfn.LET(
-  _xlpm.text, B371,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D371" t="s">
+        <v>1165</v>
       </c>
       <c r="E371" t="str" cm="1">
         <f t="array" ref="E371">_xlfn.LET(
@@ -18791,7 +18661,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06045417</v>
       </c>
     </row>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>827</v>
       </c>
@@ -18809,14 +18679,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D397" t="str" cm="1">
-        <f t="array" ref="D397">_xlfn.LET(
-  _xlpm.text, B397,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D397" t="s">
+        <v>1165</v>
       </c>
       <c r="E397" t="str" cm="1">
         <f t="array" ref="E397">_xlfn.LET(
@@ -20706,7 +20570,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c04126958</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>929</v>
       </c>
@@ -20983,7 +20847,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06469336</v>
       </c>
     </row>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>942</v>
       </c>
@@ -21001,14 +20865,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D455" t="str" cm="1">
-        <f t="array" ref="D455">_xlfn.LET(
-  _xlpm.text, B455,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D455" t="s">
+        <v>1165</v>
       </c>
       <c r="E455" t="str" cm="1">
         <f t="array" ref="E455">_xlfn.LET(
@@ -21519,7 +21377,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07029155</v>
       </c>
     </row>
-    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>972</v>
       </c>
@@ -21537,14 +21395,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D470" t="str" cm="1">
-        <f t="array" ref="D470">_xlfn.LET(
-  _xlpm.text, B470,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D470" t="s">
+        <v>1165</v>
       </c>
       <c r="E470" t="str" cm="1">
         <f t="array" ref="E470">_xlfn.LET(
@@ -21651,7 +21503,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c06630565</v>
       </c>
     </row>
-    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>980</v>
       </c>
@@ -21662,7 +21514,7 @@
         <v>59</v>
       </c>
       <c r="D474" t="s">
-        <v>92</v>
+        <v>1165</v>
       </c>
       <c r="E474" t="str" cm="1">
         <f t="array" ref="E474">_xlfn.LET(
@@ -21679,7 +21531,7 @@
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c07057403</v>
       </c>
     </row>
-    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>982</v>
       </c>
@@ -21697,14 +21549,8 @@
 )</f>
         <v>Workstations</v>
       </c>
-      <c r="D475" t="str" cm="1">
-        <f t="array" ref="D475">_xlfn.LET(
-  _xlpm.text, B475,
-  _xlpm.keywords, Category!$A$1:$A$100,
-  _xlpm.matches, _xlfn._xlws.FILTER(_xlpm.keywords, ISNUMBER(SEARCH(_xlpm.keywords, _xlpm.text))),
-  IF(COUNTA(_xlpm.matches) &gt; 0, INDEX(_xlpm.matches, 1), "")
-)</f>
-        <v>Workstation</v>
+      <c r="D475" t="s">
+        <v>1165</v>
       </c>
       <c r="E475" t="str" cm="1">
         <f t="array" ref="E475">_xlfn.LET(
@@ -22170,6 +22016,9 @@
 )</f>
         <v>G5</v>
       </c>
+      <c r="F488" t="s">
+        <v>9</v>
+      </c>
       <c r="G488" t="str">
         <f t="shared" si="7"/>
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=c05572133</v>
@@ -23947,14 +23796,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G536" xr:uid="{78150D6D-7D45-48D5-8B3A-7343EBFE63DE}">
-    <filterColumn colId="2">
+    <filterColumn colId="3">
       <filters>
-        <filter val="Notebooks"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="G8"/>
+        <filter val="Workstation"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -30993,7 +30837,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
